--- a/Statystyki_2018/Template/aopg.xlsx
+++ b/Statystyki_2018/Template/aopg.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rskowron\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myProjects\prv\statystyki\Statystyki_2018\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC2D2DFD-1A7B-4D5D-B958-7D3BADE3EC96}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DD6B16-AF6E-4C11-B780-71C2353C4F68}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="styczeń " sheetId="1" r:id="rId1"/>
-    <sheet name="styczeń  Uzasad." sheetId="2" r:id="rId2"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'styczeń '!$A$1:$HC$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'styczeń  Uzasad.'!$A$1:$BO$8</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'styczeń '!$A:$B</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'styczeń  Uzasad.'!$A:$B</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$HC$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'2'!$A$1:$BO$8</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'1'!$A:$B</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'2'!$A:$B</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="106">
   <si>
     <t>lp</t>
   </si>
@@ -552,9 +552,6 @@
   </si>
   <si>
     <t>OGÓŁEM (wraz z publikacją orzeczeń)</t>
-  </si>
-  <si>
-    <t>Ruch spraw w referatach sędziów</t>
   </si>
   <si>
     <t>Terminowość uzasadnień</t>
@@ -798,50 +795,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -900,45 +855,89 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -948,9 +947,6 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -962,6 +958,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1280,1190 +1279,1190 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IW7"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="86" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="86" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:C7"/>
+      <selection pane="bottomRight" sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" style="15" customWidth="1"/>
-    <col min="3" max="4" width="10.28515625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="8" style="15" customWidth="1"/>
-    <col min="6" max="9" width="8.28515625" style="15" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="15" customWidth="1"/>
-    <col min="11" max="11" width="8" style="15" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="15" customWidth="1"/>
-    <col min="13" max="15" width="6.85546875" style="15" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" style="15" customWidth="1"/>
-    <col min="17" max="17" width="7.28515625" style="15" customWidth="1"/>
-    <col min="18" max="19" width="6.85546875" style="15" customWidth="1"/>
-    <col min="20" max="20" width="7" style="15" customWidth="1"/>
-    <col min="21" max="21" width="5.7109375" style="15" customWidth="1"/>
-    <col min="22" max="22" width="7" style="15" customWidth="1"/>
-    <col min="23" max="24" width="5.5703125" style="15" customWidth="1"/>
-    <col min="25" max="26" width="6.28515625" style="15" customWidth="1"/>
-    <col min="27" max="28" width="5.42578125" style="15" customWidth="1"/>
-    <col min="29" max="29" width="5.85546875" style="15" customWidth="1"/>
-    <col min="30" max="30" width="6.28515625" style="15" customWidth="1"/>
-    <col min="31" max="31" width="7.5703125" style="15" customWidth="1"/>
-    <col min="32" max="34" width="7.140625" style="15" customWidth="1"/>
-    <col min="35" max="35" width="6" style="15" customWidth="1"/>
-    <col min="36" max="36" width="6.5703125" style="15" customWidth="1"/>
-    <col min="37" max="37" width="5.5703125" style="15" customWidth="1"/>
-    <col min="38" max="38" width="5.28515625" style="15" customWidth="1"/>
-    <col min="39" max="39" width="5.5703125" style="15" customWidth="1"/>
-    <col min="40" max="40" width="6" style="15" customWidth="1"/>
-    <col min="41" max="41" width="5.7109375" style="15" customWidth="1"/>
-    <col min="42" max="42" width="4.85546875" style="15" customWidth="1"/>
-    <col min="43" max="43" width="5.85546875" style="15" customWidth="1"/>
-    <col min="44" max="44" width="5.28515625" style="15" customWidth="1"/>
-    <col min="45" max="45" width="6" style="15" customWidth="1"/>
-    <col min="46" max="46" width="6.140625" style="15" customWidth="1"/>
-    <col min="47" max="47" width="5.85546875" style="15" customWidth="1"/>
-    <col min="48" max="50" width="5.5703125" style="15" customWidth="1"/>
-    <col min="51" max="51" width="5.85546875" style="15" customWidth="1"/>
-    <col min="52" max="52" width="6.5703125" style="15" customWidth="1"/>
-    <col min="53" max="54" width="5.85546875" style="15" customWidth="1"/>
-    <col min="55" max="55" width="6.42578125" style="15" customWidth="1"/>
-    <col min="56" max="56" width="6.5703125" style="15" customWidth="1"/>
-    <col min="57" max="60" width="5.85546875" style="15" customWidth="1"/>
-    <col min="61" max="61" width="8" style="15" customWidth="1"/>
-    <col min="62" max="74" width="7" style="15" customWidth="1"/>
-    <col min="75" max="75" width="7.85546875" style="15" customWidth="1"/>
-    <col min="76" max="78" width="7" style="15" customWidth="1"/>
-    <col min="79" max="79" width="8.85546875" style="15" customWidth="1"/>
-    <col min="80" max="80" width="7.85546875" style="15" customWidth="1"/>
-    <col min="81" max="84" width="7.5703125" style="15" customWidth="1"/>
-    <col min="85" max="93" width="9" style="15" customWidth="1"/>
-    <col min="94" max="94" width="6.140625" style="15" customWidth="1"/>
-    <col min="95" max="95" width="5.28515625" style="15" customWidth="1"/>
-    <col min="96" max="99" width="5.140625" style="15" customWidth="1"/>
-    <col min="100" max="100" width="12.42578125" style="15" customWidth="1"/>
-    <col min="101" max="101" width="6.85546875" style="15" customWidth="1"/>
-    <col min="102" max="102" width="12" style="15" customWidth="1"/>
-    <col min="103" max="103" width="6.85546875" style="15" customWidth="1"/>
-    <col min="104" max="105" width="8.7109375" style="15" customWidth="1"/>
-    <col min="106" max="106" width="9.42578125" style="15" customWidth="1"/>
-    <col min="107" max="108" width="8.7109375" style="15" customWidth="1"/>
-    <col min="109" max="109" width="9.42578125" style="15" customWidth="1"/>
-    <col min="110" max="110" width="8.85546875" style="15" customWidth="1"/>
-    <col min="111" max="111" width="8" style="15" customWidth="1"/>
-    <col min="112" max="114" width="8.140625" style="15" customWidth="1"/>
-    <col min="115" max="115" width="7.85546875" style="15" customWidth="1"/>
-    <col min="116" max="116" width="9" style="15" customWidth="1"/>
-    <col min="117" max="117" width="8.140625" style="15" customWidth="1"/>
-    <col min="118" max="118" width="7.7109375" style="15" customWidth="1"/>
-    <col min="119" max="121" width="6.85546875" style="15" customWidth="1"/>
-    <col min="122" max="122" width="9" style="15" customWidth="1"/>
-    <col min="123" max="123" width="10" style="15" customWidth="1"/>
-    <col min="124" max="124" width="8.5703125" style="15" customWidth="1"/>
-    <col min="125" max="125" width="7.85546875" style="15" customWidth="1"/>
-    <col min="126" max="130" width="8.5703125" style="15" customWidth="1"/>
-    <col min="131" max="131" width="13.140625" style="15" customWidth="1"/>
-    <col min="132" max="203" width="7.42578125" style="15" customWidth="1"/>
-    <col min="204" max="204" width="5" style="15" customWidth="1"/>
-    <col min="205" max="205" width="5.7109375" style="15" customWidth="1"/>
-    <col min="206" max="208" width="6.140625" style="15" customWidth="1"/>
-    <col min="209" max="209" width="5.28515625" style="15" customWidth="1"/>
-    <col min="210" max="210" width="5.42578125" style="15" customWidth="1"/>
-    <col min="211" max="211" width="86.7109375" style="15" customWidth="1"/>
-    <col min="212" max="213" width="29" style="15" customWidth="1"/>
-    <col min="214" max="220" width="5.7109375" style="15" customWidth="1"/>
-    <col min="221" max="257" width="5.7109375" style="16" customWidth="1"/>
-    <col min="258" max="1025" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.88671875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="1" customWidth="1"/>
+    <col min="6" max="9" width="8.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="1" customWidth="1"/>
+    <col min="13" max="15" width="6.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.33203125" style="1" customWidth="1"/>
+    <col min="18" max="19" width="6.88671875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="7" style="1" customWidth="1"/>
+    <col min="21" max="21" width="5.6640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="7" style="1" customWidth="1"/>
+    <col min="23" max="24" width="5.5546875" style="1" customWidth="1"/>
+    <col min="25" max="26" width="6.33203125" style="1" customWidth="1"/>
+    <col min="27" max="28" width="5.44140625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="5.88671875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="6.33203125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5546875" style="1" customWidth="1"/>
+    <col min="32" max="34" width="7.109375" style="1" customWidth="1"/>
+    <col min="35" max="35" width="6" style="1" customWidth="1"/>
+    <col min="36" max="36" width="6.5546875" style="1" customWidth="1"/>
+    <col min="37" max="37" width="5.5546875" style="1" customWidth="1"/>
+    <col min="38" max="38" width="5.33203125" style="1" customWidth="1"/>
+    <col min="39" max="39" width="5.5546875" style="1" customWidth="1"/>
+    <col min="40" max="40" width="6" style="1" customWidth="1"/>
+    <col min="41" max="41" width="5.6640625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="4.88671875" style="1" customWidth="1"/>
+    <col min="43" max="43" width="5.88671875" style="1" customWidth="1"/>
+    <col min="44" max="44" width="5.33203125" style="1" customWidth="1"/>
+    <col min="45" max="45" width="6" style="1" customWidth="1"/>
+    <col min="46" max="46" width="6.109375" style="1" customWidth="1"/>
+    <col min="47" max="47" width="5.88671875" style="1" customWidth="1"/>
+    <col min="48" max="50" width="5.5546875" style="1" customWidth="1"/>
+    <col min="51" max="51" width="5.88671875" style="1" customWidth="1"/>
+    <col min="52" max="52" width="6.5546875" style="1" customWidth="1"/>
+    <col min="53" max="54" width="5.88671875" style="1" customWidth="1"/>
+    <col min="55" max="55" width="6.44140625" style="1" customWidth="1"/>
+    <col min="56" max="56" width="6.5546875" style="1" customWidth="1"/>
+    <col min="57" max="60" width="5.88671875" style="1" customWidth="1"/>
+    <col min="61" max="61" width="8" style="1" customWidth="1"/>
+    <col min="62" max="74" width="7" style="1" customWidth="1"/>
+    <col min="75" max="75" width="7.88671875" style="1" customWidth="1"/>
+    <col min="76" max="78" width="7" style="1" customWidth="1"/>
+    <col min="79" max="79" width="8.88671875" style="1" customWidth="1"/>
+    <col min="80" max="80" width="7.88671875" style="1" customWidth="1"/>
+    <col min="81" max="84" width="7.5546875" style="1" customWidth="1"/>
+    <col min="85" max="93" width="9" style="1" customWidth="1"/>
+    <col min="94" max="94" width="6.109375" style="1" customWidth="1"/>
+    <col min="95" max="95" width="5.33203125" style="1" customWidth="1"/>
+    <col min="96" max="99" width="5.109375" style="1" customWidth="1"/>
+    <col min="100" max="100" width="12.44140625" style="1" customWidth="1"/>
+    <col min="101" max="101" width="6.88671875" style="1" customWidth="1"/>
+    <col min="102" max="102" width="12" style="1" customWidth="1"/>
+    <col min="103" max="103" width="6.88671875" style="1" customWidth="1"/>
+    <col min="104" max="105" width="8.6640625" style="1" customWidth="1"/>
+    <col min="106" max="106" width="9.44140625" style="1" customWidth="1"/>
+    <col min="107" max="108" width="8.6640625" style="1" customWidth="1"/>
+    <col min="109" max="109" width="9.44140625" style="1" customWidth="1"/>
+    <col min="110" max="110" width="8.88671875" style="1" customWidth="1"/>
+    <col min="111" max="111" width="8" style="1" customWidth="1"/>
+    <col min="112" max="114" width="8.109375" style="1" customWidth="1"/>
+    <col min="115" max="115" width="7.88671875" style="1" customWidth="1"/>
+    <col min="116" max="116" width="9" style="1" customWidth="1"/>
+    <col min="117" max="117" width="8.109375" style="1" customWidth="1"/>
+    <col min="118" max="118" width="7.6640625" style="1" customWidth="1"/>
+    <col min="119" max="121" width="6.88671875" style="1" customWidth="1"/>
+    <col min="122" max="122" width="9" style="1" customWidth="1"/>
+    <col min="123" max="123" width="10" style="1" customWidth="1"/>
+    <col min="124" max="124" width="8.5546875" style="1" customWidth="1"/>
+    <col min="125" max="125" width="7.88671875" style="1" customWidth="1"/>
+    <col min="126" max="130" width="8.5546875" style="1" customWidth="1"/>
+    <col min="131" max="131" width="13.109375" style="1" customWidth="1"/>
+    <col min="132" max="203" width="7.44140625" style="1" customWidth="1"/>
+    <col min="204" max="204" width="5" style="1" customWidth="1"/>
+    <col min="205" max="205" width="5.6640625" style="1" customWidth="1"/>
+    <col min="206" max="208" width="6.109375" style="1" customWidth="1"/>
+    <col min="209" max="209" width="5.33203125" style="1" customWidth="1"/>
+    <col min="210" max="210" width="5.44140625" style="1" customWidth="1"/>
+    <col min="211" max="211" width="86.6640625" style="1" customWidth="1"/>
+    <col min="212" max="213" width="29" style="1" customWidth="1"/>
+    <col min="214" max="220" width="5.6640625" style="1" customWidth="1"/>
+    <col min="221" max="257" width="5.6640625" style="2" customWidth="1"/>
+    <col min="258" max="1025" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="17" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="14"/>
-      <c r="AM1" s="14"/>
-      <c r="AN1" s="14"/>
-      <c r="AO1" s="14"/>
-      <c r="AP1" s="14"/>
-      <c r="AQ1" s="14"/>
-      <c r="AR1" s="14"/>
-      <c r="AS1" s="14"/>
-      <c r="AT1" s="14"/>
-      <c r="AU1" s="14"/>
-      <c r="AV1" s="14"/>
-      <c r="AW1" s="14"/>
-      <c r="AX1" s="14"/>
-      <c r="AY1" s="14"/>
-      <c r="AZ1" s="14"/>
-      <c r="BA1" s="14"/>
-      <c r="BB1" s="14"/>
-      <c r="BC1" s="14"/>
-      <c r="BD1" s="14"/>
-      <c r="BE1" s="14"/>
-      <c r="BF1" s="14"/>
-      <c r="BG1" s="14"/>
-      <c r="BH1" s="14"/>
-      <c r="BI1" s="14"/>
-      <c r="BJ1" s="14"/>
-      <c r="BK1" s="14"/>
-      <c r="BL1" s="14"/>
-      <c r="BM1" s="14"/>
-      <c r="BN1" s="14"/>
-      <c r="BO1" s="14"/>
-      <c r="BP1" s="14"/>
-      <c r="BQ1" s="14"/>
-      <c r="BR1" s="14"/>
-      <c r="BS1" s="14"/>
-      <c r="BT1" s="14"/>
-      <c r="BU1" s="14"/>
-      <c r="BV1" s="14"/>
-      <c r="BW1" s="14"/>
-      <c r="BX1" s="14"/>
-      <c r="BY1" s="14"/>
-      <c r="BZ1" s="14"/>
-      <c r="CA1" s="14"/>
-      <c r="CB1" s="14"/>
-      <c r="CC1" s="14"/>
-      <c r="CD1" s="14"/>
-      <c r="CE1" s="14"/>
-      <c r="CF1" s="14"/>
-      <c r="CG1" s="14"/>
-      <c r="HC1" s="15"/>
-      <c r="HD1" s="15"/>
-      <c r="HE1" s="15"/>
-      <c r="HF1" s="15"/>
-      <c r="HG1" s="15"/>
-      <c r="HH1" s="15"/>
-      <c r="HI1" s="15"/>
-      <c r="HJ1" s="15"/>
-      <c r="HK1" s="15"/>
-      <c r="HL1" s="18"/>
-      <c r="HM1" s="19"/>
-      <c r="HN1" s="19"/>
-      <c r="HO1" s="19"/>
-      <c r="HP1" s="19"/>
-      <c r="HQ1" s="19"/>
-      <c r="HR1" s="19"/>
-      <c r="HS1" s="19"/>
-      <c r="HT1" s="19"/>
-      <c r="HU1" s="19"/>
-      <c r="HV1" s="19"/>
-      <c r="HW1" s="19"/>
-      <c r="HX1" s="19"/>
-      <c r="HY1" s="19"/>
-      <c r="HZ1" s="19"/>
-      <c r="IA1" s="19"/>
-      <c r="IB1" s="19"/>
-      <c r="IC1" s="19"/>
-      <c r="ID1" s="19"/>
-      <c r="IE1" s="19"/>
-      <c r="IF1" s="19"/>
-      <c r="IG1" s="19"/>
-      <c r="IH1" s="19"/>
-      <c r="II1" s="19"/>
-      <c r="IJ1" s="19"/>
-      <c r="IK1" s="19"/>
-      <c r="IL1" s="19"/>
-      <c r="IM1" s="19"/>
-      <c r="IN1" s="19"/>
-      <c r="IO1" s="19"/>
-      <c r="IP1" s="19"/>
-      <c r="IQ1" s="19"/>
-      <c r="IR1" s="19"/>
-      <c r="IS1" s="19"/>
-      <c r="IT1" s="19"/>
-      <c r="IU1" s="19"/>
-      <c r="IV1" s="19"/>
+    <row r="1" spans="1:256" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="59"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="23"/>
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="23"/>
+      <c r="AS1" s="23"/>
+      <c r="AT1" s="23"/>
+      <c r="AU1" s="23"/>
+      <c r="AV1" s="23"/>
+      <c r="AW1" s="23"/>
+      <c r="AX1" s="23"/>
+      <c r="AY1" s="23"/>
+      <c r="AZ1" s="23"/>
+      <c r="BA1" s="23"/>
+      <c r="BB1" s="23"/>
+      <c r="BC1" s="23"/>
+      <c r="BD1" s="23"/>
+      <c r="BE1" s="23"/>
+      <c r="BF1" s="23"/>
+      <c r="BG1" s="23"/>
+      <c r="BH1" s="23"/>
+      <c r="BI1" s="23"/>
+      <c r="BJ1" s="23"/>
+      <c r="BK1" s="23"/>
+      <c r="BL1" s="23"/>
+      <c r="BM1" s="23"/>
+      <c r="BN1" s="23"/>
+      <c r="BO1" s="23"/>
+      <c r="BP1" s="23"/>
+      <c r="BQ1" s="23"/>
+      <c r="BR1" s="23"/>
+      <c r="BS1" s="23"/>
+      <c r="BT1" s="23"/>
+      <c r="BU1" s="23"/>
+      <c r="BV1" s="23"/>
+      <c r="BW1" s="23"/>
+      <c r="BX1" s="23"/>
+      <c r="BY1" s="23"/>
+      <c r="BZ1" s="23"/>
+      <c r="CA1" s="23"/>
+      <c r="CB1" s="23"/>
+      <c r="CC1" s="23"/>
+      <c r="CD1" s="23"/>
+      <c r="CE1" s="23"/>
+      <c r="CF1" s="23"/>
+      <c r="CG1" s="23"/>
+      <c r="HC1" s="1"/>
+      <c r="HD1" s="1"/>
+      <c r="HE1" s="1"/>
+      <c r="HF1" s="1"/>
+      <c r="HG1" s="1"/>
+      <c r="HH1" s="1"/>
+      <c r="HI1" s="1"/>
+      <c r="HJ1" s="1"/>
+      <c r="HK1" s="1"/>
+      <c r="HL1" s="4"/>
+      <c r="HM1" s="5"/>
+      <c r="HN1" s="5"/>
+      <c r="HO1" s="5"/>
+      <c r="HP1" s="5"/>
+      <c r="HQ1" s="5"/>
+      <c r="HR1" s="5"/>
+      <c r="HS1" s="5"/>
+      <c r="HT1" s="5"/>
+      <c r="HU1" s="5"/>
+      <c r="HV1" s="5"/>
+      <c r="HW1" s="5"/>
+      <c r="HX1" s="5"/>
+      <c r="HY1" s="5"/>
+      <c r="HZ1" s="5"/>
+      <c r="IA1" s="5"/>
+      <c r="IB1" s="5"/>
+      <c r="IC1" s="5"/>
+      <c r="ID1" s="5"/>
+      <c r="IE1" s="5"/>
+      <c r="IF1" s="5"/>
+      <c r="IG1" s="5"/>
+      <c r="IH1" s="5"/>
+      <c r="II1" s="5"/>
+      <c r="IJ1" s="5"/>
+      <c r="IK1" s="5"/>
+      <c r="IL1" s="5"/>
+      <c r="IM1" s="5"/>
+      <c r="IN1" s="5"/>
+      <c r="IO1" s="5"/>
+      <c r="IP1" s="5"/>
+      <c r="IQ1" s="5"/>
+      <c r="IR1" s="5"/>
+      <c r="IS1" s="5"/>
+      <c r="IT1" s="5"/>
+      <c r="IU1" s="5"/>
+      <c r="IV1" s="5"/>
     </row>
-    <row r="2" spans="1:256" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="HC2" s="15"/>
-      <c r="HD2" s="15"/>
-      <c r="HE2" s="15"/>
-      <c r="HF2" s="15"/>
-      <c r="HG2" s="15"/>
-      <c r="HH2" s="15"/>
-      <c r="HI2" s="15"/>
-      <c r="HJ2" s="15"/>
-      <c r="HK2" s="15"/>
-      <c r="HL2" s="18"/>
-      <c r="HM2" s="19"/>
-      <c r="HN2" s="19"/>
-      <c r="HO2" s="19"/>
-      <c r="HP2" s="19"/>
-      <c r="HQ2" s="19"/>
-      <c r="HR2" s="19"/>
-      <c r="HS2" s="19"/>
-      <c r="HT2" s="19"/>
-      <c r="HU2" s="19"/>
-      <c r="HV2" s="19"/>
-      <c r="HW2" s="19"/>
-      <c r="HX2" s="19"/>
-      <c r="HY2" s="19"/>
-      <c r="HZ2" s="19"/>
-      <c r="IA2" s="19"/>
-      <c r="IB2" s="19"/>
-      <c r="IC2" s="19"/>
-      <c r="ID2" s="19"/>
-      <c r="IE2" s="19"/>
-      <c r="IF2" s="19"/>
-      <c r="IG2" s="19"/>
-      <c r="IH2" s="19"/>
-      <c r="II2" s="19"/>
-      <c r="IJ2" s="19"/>
-      <c r="IK2" s="19"/>
-      <c r="IL2" s="19"/>
-      <c r="IM2" s="19"/>
-      <c r="IN2" s="19"/>
-      <c r="IO2" s="19"/>
-      <c r="IP2" s="19"/>
-      <c r="IQ2" s="19"/>
-      <c r="IR2" s="19"/>
-      <c r="IS2" s="19"/>
-      <c r="IT2" s="19"/>
-      <c r="IU2" s="19"/>
-      <c r="IV2" s="19"/>
+    <row r="2" spans="1:256" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="HC2" s="1"/>
+      <c r="HD2" s="1"/>
+      <c r="HE2" s="1"/>
+      <c r="HF2" s="1"/>
+      <c r="HG2" s="1"/>
+      <c r="HH2" s="1"/>
+      <c r="HI2" s="1"/>
+      <c r="HJ2" s="1"/>
+      <c r="HK2" s="1"/>
+      <c r="HL2" s="4"/>
+      <c r="HM2" s="5"/>
+      <c r="HN2" s="5"/>
+      <c r="HO2" s="5"/>
+      <c r="HP2" s="5"/>
+      <c r="HQ2" s="5"/>
+      <c r="HR2" s="5"/>
+      <c r="HS2" s="5"/>
+      <c r="HT2" s="5"/>
+      <c r="HU2" s="5"/>
+      <c r="HV2" s="5"/>
+      <c r="HW2" s="5"/>
+      <c r="HX2" s="5"/>
+      <c r="HY2" s="5"/>
+      <c r="HZ2" s="5"/>
+      <c r="IA2" s="5"/>
+      <c r="IB2" s="5"/>
+      <c r="IC2" s="5"/>
+      <c r="ID2" s="5"/>
+      <c r="IE2" s="5"/>
+      <c r="IF2" s="5"/>
+      <c r="IG2" s="5"/>
+      <c r="IH2" s="5"/>
+      <c r="II2" s="5"/>
+      <c r="IJ2" s="5"/>
+      <c r="IK2" s="5"/>
+      <c r="IL2" s="5"/>
+      <c r="IM2" s="5"/>
+      <c r="IN2" s="5"/>
+      <c r="IO2" s="5"/>
+      <c r="IP2" s="5"/>
+      <c r="IQ2" s="5"/>
+      <c r="IR2" s="5"/>
+      <c r="IS2" s="5"/>
+      <c r="IT2" s="5"/>
+      <c r="IU2" s="5"/>
+      <c r="IV2" s="5"/>
     </row>
-    <row r="3" spans="1:256" s="21" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:256" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11" t="s">
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="11"/>
-      <c r="AI3" s="11"/>
-      <c r="AJ3" s="11"/>
-      <c r="AK3" s="11"/>
-      <c r="AL3" s="11"/>
-      <c r="AM3" s="11"/>
-      <c r="AN3" s="11"/>
-      <c r="AO3" s="11"/>
-      <c r="AP3" s="11"/>
-      <c r="AQ3" s="11"/>
-      <c r="AR3" s="11"/>
-      <c r="AS3" s="11"/>
-      <c r="AT3" s="11"/>
-      <c r="AU3" s="11"/>
-      <c r="AV3" s="11"/>
-      <c r="AW3" s="11" t="s">
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="27"/>
+      <c r="AN3" s="27"/>
+      <c r="AO3" s="27"/>
+      <c r="AP3" s="27"/>
+      <c r="AQ3" s="27"/>
+      <c r="AR3" s="27"/>
+      <c r="AS3" s="27"/>
+      <c r="AT3" s="27"/>
+      <c r="AU3" s="27"/>
+      <c r="AV3" s="27"/>
+      <c r="AW3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="AX3" s="11"/>
-      <c r="AY3" s="11"/>
-      <c r="AZ3" s="11"/>
-      <c r="BA3" s="11"/>
-      <c r="BB3" s="11"/>
-      <c r="BC3" s="11"/>
-      <c r="BD3" s="11"/>
-      <c r="BE3" s="11"/>
-      <c r="BF3" s="11"/>
-      <c r="BG3" s="11"/>
-      <c r="BH3" s="11"/>
-      <c r="BI3" s="11"/>
-      <c r="BJ3" s="11"/>
-      <c r="BK3" s="11"/>
-      <c r="BL3" s="11"/>
-      <c r="BM3" s="11"/>
-      <c r="BN3" s="11"/>
-      <c r="BO3" s="11"/>
-      <c r="BP3" s="11"/>
-      <c r="BQ3" s="11"/>
-      <c r="BR3" s="11"/>
-      <c r="BS3" s="11"/>
-      <c r="BT3" s="11"/>
-      <c r="BU3" s="11"/>
-      <c r="BV3" s="11"/>
-      <c r="BW3" s="11"/>
-      <c r="BX3" s="11"/>
-      <c r="BY3" s="11"/>
-      <c r="BZ3" s="11"/>
-      <c r="CA3" s="11" t="s">
+      <c r="AX3" s="27"/>
+      <c r="AY3" s="27"/>
+      <c r="AZ3" s="27"/>
+      <c r="BA3" s="27"/>
+      <c r="BB3" s="27"/>
+      <c r="BC3" s="27"/>
+      <c r="BD3" s="27"/>
+      <c r="BE3" s="27"/>
+      <c r="BF3" s="27"/>
+      <c r="BG3" s="27"/>
+      <c r="BH3" s="27"/>
+      <c r="BI3" s="27"/>
+      <c r="BJ3" s="27"/>
+      <c r="BK3" s="27"/>
+      <c r="BL3" s="27"/>
+      <c r="BM3" s="27"/>
+      <c r="BN3" s="27"/>
+      <c r="BO3" s="27"/>
+      <c r="BP3" s="27"/>
+      <c r="BQ3" s="27"/>
+      <c r="BR3" s="27"/>
+      <c r="BS3" s="27"/>
+      <c r="BT3" s="27"/>
+      <c r="BU3" s="27"/>
+      <c r="BV3" s="27"/>
+      <c r="BW3" s="27"/>
+      <c r="BX3" s="27"/>
+      <c r="BY3" s="27"/>
+      <c r="BZ3" s="27"/>
+      <c r="CA3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="CB3" s="11"/>
-      <c r="CC3" s="11"/>
-      <c r="CD3" s="11"/>
-      <c r="CE3" s="11"/>
-      <c r="CF3" s="11"/>
-      <c r="CG3" s="11"/>
-      <c r="CH3" s="11"/>
-      <c r="CI3" s="11"/>
-      <c r="CJ3" s="11"/>
-      <c r="CK3" s="11"/>
-      <c r="CL3" s="11"/>
-      <c r="CM3" s="11"/>
-      <c r="CN3" s="11"/>
-      <c r="CO3" s="11"/>
-      <c r="CP3" s="9" t="s">
+      <c r="CB3" s="27"/>
+      <c r="CC3" s="27"/>
+      <c r="CD3" s="27"/>
+      <c r="CE3" s="27"/>
+      <c r="CF3" s="27"/>
+      <c r="CG3" s="27"/>
+      <c r="CH3" s="27"/>
+      <c r="CI3" s="27"/>
+      <c r="CJ3" s="27"/>
+      <c r="CK3" s="27"/>
+      <c r="CL3" s="27"/>
+      <c r="CM3" s="27"/>
+      <c r="CN3" s="27"/>
+      <c r="CO3" s="27"/>
+      <c r="CP3" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="CQ3" s="9"/>
-      <c r="CR3" s="9"/>
-      <c r="CS3" s="9"/>
-      <c r="CT3" s="9"/>
-      <c r="CU3" s="9"/>
-      <c r="CV3" s="9" t="s">
+      <c r="CQ3" s="31"/>
+      <c r="CR3" s="31"/>
+      <c r="CS3" s="31"/>
+      <c r="CT3" s="31"/>
+      <c r="CU3" s="31"/>
+      <c r="CV3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="CW3" s="9"/>
-      <c r="CX3" s="9"/>
-      <c r="CY3" s="9"/>
-      <c r="CZ3" s="11" t="s">
+      <c r="CW3" s="31"/>
+      <c r="CX3" s="31"/>
+      <c r="CY3" s="31"/>
+      <c r="CZ3" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="DA3" s="11"/>
-      <c r="DB3" s="11"/>
-      <c r="DC3" s="11"/>
-      <c r="DD3" s="11"/>
-      <c r="DE3" s="11"/>
-      <c r="DF3" s="11" t="s">
+      <c r="DA3" s="27"/>
+      <c r="DB3" s="27"/>
+      <c r="DC3" s="27"/>
+      <c r="DD3" s="27"/>
+      <c r="DE3" s="27"/>
+      <c r="DF3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="DG3" s="11"/>
-      <c r="DH3" s="11"/>
-      <c r="DI3" s="11"/>
-      <c r="DJ3" s="11"/>
-      <c r="DK3" s="11"/>
-      <c r="DL3" s="11"/>
-      <c r="DM3" s="11"/>
-      <c r="DN3" s="11"/>
-      <c r="DO3" s="11"/>
-      <c r="DP3" s="11"/>
-      <c r="DQ3" s="11"/>
-      <c r="DR3" s="11"/>
-      <c r="DS3" s="11"/>
-      <c r="DT3" s="11"/>
-      <c r="DU3" s="11" t="s">
+      <c r="DG3" s="27"/>
+      <c r="DH3" s="27"/>
+      <c r="DI3" s="27"/>
+      <c r="DJ3" s="27"/>
+      <c r="DK3" s="27"/>
+      <c r="DL3" s="27"/>
+      <c r="DM3" s="27"/>
+      <c r="DN3" s="27"/>
+      <c r="DO3" s="27"/>
+      <c r="DP3" s="27"/>
+      <c r="DQ3" s="27"/>
+      <c r="DR3" s="27"/>
+      <c r="DS3" s="27"/>
+      <c r="DT3" s="27"/>
+      <c r="DU3" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="DV3" s="11"/>
-      <c r="DW3" s="11"/>
-      <c r="DX3" s="11"/>
-      <c r="DY3" s="11"/>
-      <c r="DZ3" s="11"/>
-      <c r="EA3" s="11" t="s">
+      <c r="DV3" s="27"/>
+      <c r="DW3" s="27"/>
+      <c r="DX3" s="27"/>
+      <c r="DY3" s="27"/>
+      <c r="DZ3" s="27"/>
+      <c r="EA3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="EB3" s="11"/>
-      <c r="EC3" s="11"/>
-      <c r="ED3" s="11"/>
-      <c r="EE3" s="11"/>
-      <c r="EF3" s="11"/>
-      <c r="EG3" s="11"/>
-      <c r="EH3" s="11"/>
-      <c r="EI3" s="11"/>
-      <c r="EJ3" s="11"/>
-      <c r="EK3" s="11"/>
-      <c r="EL3" s="11"/>
-      <c r="EM3" s="11"/>
-      <c r="EN3" s="11"/>
-      <c r="EO3" s="11"/>
-      <c r="EP3" s="11"/>
-      <c r="EQ3" s="11"/>
-      <c r="ER3" s="11"/>
-      <c r="ES3" s="11"/>
-      <c r="ET3" s="11"/>
-      <c r="EU3" s="11"/>
-      <c r="EV3" s="11"/>
-      <c r="EW3" s="11"/>
-      <c r="EX3" s="11"/>
-      <c r="EY3" s="11"/>
-      <c r="EZ3" s="11"/>
-      <c r="FA3" s="11"/>
-      <c r="FB3" s="11"/>
-      <c r="FC3" s="11"/>
-      <c r="FD3" s="11"/>
-      <c r="FE3" s="11"/>
-      <c r="FF3" s="11"/>
-      <c r="FG3" s="11"/>
-      <c r="FH3" s="11"/>
-      <c r="FI3" s="11"/>
-      <c r="FJ3" s="11"/>
-      <c r="FK3" s="11"/>
-      <c r="FL3" s="11"/>
-      <c r="FM3" s="11"/>
-      <c r="FN3" s="11"/>
-      <c r="FO3" s="11"/>
-      <c r="FP3" s="11"/>
-      <c r="FQ3" s="11"/>
-      <c r="FR3" s="11"/>
-      <c r="FS3" s="11"/>
-      <c r="FT3" s="11"/>
-      <c r="FU3" s="11"/>
-      <c r="FV3" s="11"/>
-      <c r="FW3" s="11"/>
-      <c r="FX3" s="11"/>
-      <c r="FY3" s="11"/>
-      <c r="FZ3" s="11"/>
-      <c r="GA3" s="11"/>
-      <c r="GB3" s="11"/>
-      <c r="GC3" s="11"/>
-      <c r="GD3" s="11"/>
-      <c r="GE3" s="11"/>
-      <c r="GF3" s="11"/>
-      <c r="GG3" s="11"/>
-      <c r="GH3" s="11"/>
-      <c r="GI3" s="11"/>
-      <c r="GJ3" s="11"/>
-      <c r="GK3" s="11"/>
-      <c r="GL3" s="11"/>
-      <c r="GM3" s="11"/>
-      <c r="GN3" s="11"/>
-      <c r="GO3" s="11"/>
-      <c r="GP3" s="11"/>
-      <c r="GQ3" s="11"/>
-      <c r="GR3" s="11"/>
-      <c r="GS3" s="11"/>
-      <c r="GT3" s="11"/>
-      <c r="GU3" s="11"/>
-      <c r="GV3" s="11" t="s">
+      <c r="EB3" s="27"/>
+      <c r="EC3" s="27"/>
+      <c r="ED3" s="27"/>
+      <c r="EE3" s="27"/>
+      <c r="EF3" s="27"/>
+      <c r="EG3" s="27"/>
+      <c r="EH3" s="27"/>
+      <c r="EI3" s="27"/>
+      <c r="EJ3" s="27"/>
+      <c r="EK3" s="27"/>
+      <c r="EL3" s="27"/>
+      <c r="EM3" s="27"/>
+      <c r="EN3" s="27"/>
+      <c r="EO3" s="27"/>
+      <c r="EP3" s="27"/>
+      <c r="EQ3" s="27"/>
+      <c r="ER3" s="27"/>
+      <c r="ES3" s="27"/>
+      <c r="ET3" s="27"/>
+      <c r="EU3" s="27"/>
+      <c r="EV3" s="27"/>
+      <c r="EW3" s="27"/>
+      <c r="EX3" s="27"/>
+      <c r="EY3" s="27"/>
+      <c r="EZ3" s="27"/>
+      <c r="FA3" s="27"/>
+      <c r="FB3" s="27"/>
+      <c r="FC3" s="27"/>
+      <c r="FD3" s="27"/>
+      <c r="FE3" s="27"/>
+      <c r="FF3" s="27"/>
+      <c r="FG3" s="27"/>
+      <c r="FH3" s="27"/>
+      <c r="FI3" s="27"/>
+      <c r="FJ3" s="27"/>
+      <c r="FK3" s="27"/>
+      <c r="FL3" s="27"/>
+      <c r="FM3" s="27"/>
+      <c r="FN3" s="27"/>
+      <c r="FO3" s="27"/>
+      <c r="FP3" s="27"/>
+      <c r="FQ3" s="27"/>
+      <c r="FR3" s="27"/>
+      <c r="FS3" s="27"/>
+      <c r="FT3" s="27"/>
+      <c r="FU3" s="27"/>
+      <c r="FV3" s="27"/>
+      <c r="FW3" s="27"/>
+      <c r="FX3" s="27"/>
+      <c r="FY3" s="27"/>
+      <c r="FZ3" s="27"/>
+      <c r="GA3" s="27"/>
+      <c r="GB3" s="27"/>
+      <c r="GC3" s="27"/>
+      <c r="GD3" s="27"/>
+      <c r="GE3" s="27"/>
+      <c r="GF3" s="27"/>
+      <c r="GG3" s="27"/>
+      <c r="GH3" s="27"/>
+      <c r="GI3" s="27"/>
+      <c r="GJ3" s="27"/>
+      <c r="GK3" s="27"/>
+      <c r="GL3" s="27"/>
+      <c r="GM3" s="27"/>
+      <c r="GN3" s="27"/>
+      <c r="GO3" s="27"/>
+      <c r="GP3" s="27"/>
+      <c r="GQ3" s="27"/>
+      <c r="GR3" s="27"/>
+      <c r="GS3" s="27"/>
+      <c r="GT3" s="27"/>
+      <c r="GU3" s="27"/>
+      <c r="GV3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="GW3" s="11"/>
-      <c r="GX3" s="11"/>
-      <c r="GY3" s="11"/>
-      <c r="GZ3" s="11" t="s">
+      <c r="GW3" s="27"/>
+      <c r="GX3" s="27"/>
+      <c r="GY3" s="27"/>
+      <c r="GZ3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="HA3" s="11"/>
-      <c r="HB3" s="11"/>
-      <c r="HC3" s="8" t="s">
+      <c r="HA3" s="27"/>
+      <c r="HB3" s="27"/>
+      <c r="HC3" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="HD3" s="7" t="s">
+      <c r="HD3" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="HE3" s="7"/>
-      <c r="HF3" s="22"/>
-      <c r="HG3" s="15"/>
-      <c r="HH3" s="15"/>
-      <c r="HI3" s="15"/>
-      <c r="HJ3" s="15"/>
-      <c r="HK3" s="15"/>
-      <c r="HL3" s="18"/>
-      <c r="HM3" s="23"/>
-      <c r="HN3" s="23"/>
-      <c r="HO3" s="23"/>
-      <c r="HP3" s="23"/>
-      <c r="HQ3" s="23"/>
-      <c r="HR3" s="23"/>
-      <c r="HS3" s="23"/>
-      <c r="HT3" s="23"/>
-      <c r="HU3" s="23"/>
-      <c r="HV3" s="23"/>
-      <c r="HW3" s="23"/>
-      <c r="HX3" s="23"/>
-      <c r="HY3" s="23"/>
-      <c r="HZ3" s="23"/>
-      <c r="IA3" s="23"/>
-      <c r="IB3" s="23"/>
-      <c r="IC3" s="23"/>
-      <c r="ID3" s="23"/>
-      <c r="IE3" s="23"/>
-      <c r="IF3" s="23"/>
-      <c r="IG3" s="23"/>
-      <c r="IH3" s="23"/>
-      <c r="II3" s="23"/>
-      <c r="IJ3" s="23"/>
-      <c r="IK3" s="23"/>
-      <c r="IL3" s="23"/>
-      <c r="IM3" s="23"/>
-      <c r="IN3" s="23"/>
-      <c r="IO3" s="23"/>
-      <c r="IP3" s="23"/>
-      <c r="IQ3" s="23"/>
-      <c r="IR3" s="23"/>
-      <c r="IS3" s="23"/>
-      <c r="IT3" s="23"/>
-      <c r="IU3" s="23"/>
-      <c r="IV3" s="23"/>
+      <c r="HE3" s="34"/>
+      <c r="HF3" s="8"/>
+      <c r="HG3" s="1"/>
+      <c r="HH3" s="1"/>
+      <c r="HI3" s="1"/>
+      <c r="HJ3" s="1"/>
+      <c r="HK3" s="1"/>
+      <c r="HL3" s="4"/>
+      <c r="HM3" s="9"/>
+      <c r="HN3" s="9"/>
+      <c r="HO3" s="9"/>
+      <c r="HP3" s="9"/>
+      <c r="HQ3" s="9"/>
+      <c r="HR3" s="9"/>
+      <c r="HS3" s="9"/>
+      <c r="HT3" s="9"/>
+      <c r="HU3" s="9"/>
+      <c r="HV3" s="9"/>
+      <c r="HW3" s="9"/>
+      <c r="HX3" s="9"/>
+      <c r="HY3" s="9"/>
+      <c r="HZ3" s="9"/>
+      <c r="IA3" s="9"/>
+      <c r="IB3" s="9"/>
+      <c r="IC3" s="9"/>
+      <c r="ID3" s="9"/>
+      <c r="IE3" s="9"/>
+      <c r="IF3" s="9"/>
+      <c r="IG3" s="9"/>
+      <c r="IH3" s="9"/>
+      <c r="II3" s="9"/>
+      <c r="IJ3" s="9"/>
+      <c r="IK3" s="9"/>
+      <c r="IL3" s="9"/>
+      <c r="IM3" s="9"/>
+      <c r="IN3" s="9"/>
+      <c r="IO3" s="9"/>
+      <c r="IP3" s="9"/>
+      <c r="IQ3" s="9"/>
+      <c r="IR3" s="9"/>
+      <c r="IS3" s="9"/>
+      <c r="IT3" s="9"/>
+      <c r="IU3" s="9"/>
+      <c r="IV3" s="9"/>
     </row>
-    <row r="4" spans="1:256" s="21" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="6" t="s">
+    <row r="4" spans="1:256" s="7" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="5" t="s">
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="5"/>
-      <c r="U4" s="11" t="s">
+      <c r="T4" s="36"/>
+      <c r="U4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="11"/>
-      <c r="AI4" s="11" t="s">
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="27"/>
+      <c r="AH4" s="27"/>
+      <c r="AI4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="AJ4" s="11"/>
-      <c r="AK4" s="11"/>
-      <c r="AL4" s="11"/>
-      <c r="AM4" s="11"/>
-      <c r="AN4" s="11"/>
-      <c r="AO4" s="11"/>
-      <c r="AP4" s="11"/>
-      <c r="AQ4" s="11"/>
-      <c r="AR4" s="11"/>
-      <c r="AS4" s="11"/>
-      <c r="AT4" s="11"/>
-      <c r="AU4" s="11"/>
-      <c r="AV4" s="11"/>
-      <c r="AW4" s="5" t="s">
+      <c r="AJ4" s="27"/>
+      <c r="AK4" s="27"/>
+      <c r="AL4" s="27"/>
+      <c r="AM4" s="27"/>
+      <c r="AN4" s="27"/>
+      <c r="AO4" s="27"/>
+      <c r="AP4" s="27"/>
+      <c r="AQ4" s="27"/>
+      <c r="AR4" s="27"/>
+      <c r="AS4" s="27"/>
+      <c r="AT4" s="27"/>
+      <c r="AU4" s="27"/>
+      <c r="AV4" s="27"/>
+      <c r="AW4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="AX4" s="5"/>
-      <c r="AY4" s="11" t="s">
+      <c r="AX4" s="36"/>
+      <c r="AY4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="AZ4" s="11"/>
-      <c r="BA4" s="11"/>
-      <c r="BB4" s="11"/>
-      <c r="BC4" s="11"/>
-      <c r="BD4" s="11"/>
-      <c r="BE4" s="11"/>
-      <c r="BF4" s="11"/>
-      <c r="BG4" s="11"/>
-      <c r="BH4" s="11"/>
-      <c r="BI4" s="11"/>
-      <c r="BJ4" s="11"/>
-      <c r="BK4" s="11"/>
-      <c r="BL4" s="11"/>
-      <c r="BM4" s="11" t="s">
+      <c r="AZ4" s="27"/>
+      <c r="BA4" s="27"/>
+      <c r="BB4" s="27"/>
+      <c r="BC4" s="27"/>
+      <c r="BD4" s="27"/>
+      <c r="BE4" s="27"/>
+      <c r="BF4" s="27"/>
+      <c r="BG4" s="27"/>
+      <c r="BH4" s="27"/>
+      <c r="BI4" s="27"/>
+      <c r="BJ4" s="27"/>
+      <c r="BK4" s="27"/>
+      <c r="BL4" s="27"/>
+      <c r="BM4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="BN4" s="11"/>
-      <c r="BO4" s="11"/>
-      <c r="BP4" s="11"/>
-      <c r="BQ4" s="11"/>
-      <c r="BR4" s="11"/>
-      <c r="BS4" s="11"/>
-      <c r="BT4" s="11"/>
-      <c r="BU4" s="11"/>
-      <c r="BV4" s="11"/>
-      <c r="BW4" s="11"/>
-      <c r="BX4" s="11"/>
-      <c r="BY4" s="11"/>
-      <c r="BZ4" s="11"/>
-      <c r="CA4" s="6" t="s">
+      <c r="BN4" s="27"/>
+      <c r="BO4" s="27"/>
+      <c r="BP4" s="27"/>
+      <c r="BQ4" s="27"/>
+      <c r="BR4" s="27"/>
+      <c r="BS4" s="27"/>
+      <c r="BT4" s="27"/>
+      <c r="BU4" s="27"/>
+      <c r="BV4" s="27"/>
+      <c r="BW4" s="27"/>
+      <c r="BX4" s="27"/>
+      <c r="BY4" s="27"/>
+      <c r="BZ4" s="27"/>
+      <c r="CA4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="CB4" s="11" t="s">
+      <c r="CB4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="CC4" s="11"/>
-      <c r="CD4" s="11"/>
-      <c r="CE4" s="11"/>
-      <c r="CF4" s="11"/>
-      <c r="CG4" s="11"/>
-      <c r="CH4" s="11"/>
-      <c r="CI4" s="11" t="s">
+      <c r="CC4" s="27"/>
+      <c r="CD4" s="27"/>
+      <c r="CE4" s="27"/>
+      <c r="CF4" s="27"/>
+      <c r="CG4" s="27"/>
+      <c r="CH4" s="27"/>
+      <c r="CI4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="CJ4" s="11"/>
-      <c r="CK4" s="11"/>
-      <c r="CL4" s="11"/>
-      <c r="CM4" s="11"/>
-      <c r="CN4" s="11"/>
-      <c r="CO4" s="11"/>
-      <c r="CP4" s="4" t="s">
+      <c r="CJ4" s="27"/>
+      <c r="CK4" s="27"/>
+      <c r="CL4" s="27"/>
+      <c r="CM4" s="27"/>
+      <c r="CN4" s="27"/>
+      <c r="CO4" s="27"/>
+      <c r="CP4" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="CQ4" s="4"/>
-      <c r="CR4" s="4"/>
-      <c r="CS4" s="3" t="s">
+      <c r="CQ4" s="37"/>
+      <c r="CR4" s="37"/>
+      <c r="CS4" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="CT4" s="3"/>
-      <c r="CU4" s="3"/>
-      <c r="CV4" s="9"/>
-      <c r="CW4" s="9"/>
-      <c r="CX4" s="9"/>
-      <c r="CY4" s="9"/>
-      <c r="CZ4" s="11"/>
-      <c r="DA4" s="11"/>
-      <c r="DB4" s="11"/>
-      <c r="DC4" s="11"/>
-      <c r="DD4" s="11"/>
-      <c r="DE4" s="11"/>
-      <c r="DF4" s="6" t="s">
+      <c r="CT4" s="38"/>
+      <c r="CU4" s="38"/>
+      <c r="CV4" s="31"/>
+      <c r="CW4" s="31"/>
+      <c r="CX4" s="31"/>
+      <c r="CY4" s="31"/>
+      <c r="CZ4" s="27"/>
+      <c r="DA4" s="27"/>
+      <c r="DB4" s="27"/>
+      <c r="DC4" s="27"/>
+      <c r="DD4" s="27"/>
+      <c r="DE4" s="27"/>
+      <c r="DF4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="DG4" s="11" t="s">
+      <c r="DG4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="DH4" s="11"/>
-      <c r="DI4" s="11"/>
-      <c r="DJ4" s="11"/>
-      <c r="DK4" s="11"/>
-      <c r="DL4" s="11"/>
-      <c r="DM4" s="11"/>
-      <c r="DN4" s="11" t="s">
+      <c r="DH4" s="27"/>
+      <c r="DI4" s="27"/>
+      <c r="DJ4" s="27"/>
+      <c r="DK4" s="27"/>
+      <c r="DL4" s="27"/>
+      <c r="DM4" s="27"/>
+      <c r="DN4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="DO4" s="11"/>
-      <c r="DP4" s="11"/>
-      <c r="DQ4" s="11"/>
-      <c r="DR4" s="11"/>
-      <c r="DS4" s="11"/>
-      <c r="DT4" s="11"/>
-      <c r="DU4" s="11" t="s">
+      <c r="DO4" s="27"/>
+      <c r="DP4" s="27"/>
+      <c r="DQ4" s="27"/>
+      <c r="DR4" s="27"/>
+      <c r="DS4" s="27"/>
+      <c r="DT4" s="27"/>
+      <c r="DU4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="DV4" s="11"/>
-      <c r="DW4" s="11"/>
-      <c r="DX4" s="11" t="s">
+      <c r="DV4" s="27"/>
+      <c r="DW4" s="27"/>
+      <c r="DX4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="DY4" s="11"/>
-      <c r="DZ4" s="11"/>
-      <c r="EA4" s="11"/>
-      <c r="EB4" s="11"/>
-      <c r="EC4" s="11"/>
-      <c r="ED4" s="11"/>
-      <c r="EE4" s="11"/>
-      <c r="EF4" s="11"/>
-      <c r="EG4" s="11"/>
-      <c r="EH4" s="11"/>
-      <c r="EI4" s="11"/>
-      <c r="EJ4" s="11"/>
-      <c r="EK4" s="11"/>
-      <c r="EL4" s="11"/>
-      <c r="EM4" s="11"/>
-      <c r="EN4" s="11"/>
-      <c r="EO4" s="11"/>
-      <c r="EP4" s="11"/>
-      <c r="EQ4" s="11"/>
-      <c r="ER4" s="11"/>
-      <c r="ES4" s="11"/>
-      <c r="ET4" s="11"/>
-      <c r="EU4" s="11"/>
-      <c r="EV4" s="11"/>
-      <c r="EW4" s="11"/>
-      <c r="EX4" s="11"/>
-      <c r="EY4" s="11"/>
-      <c r="EZ4" s="11"/>
-      <c r="FA4" s="11"/>
-      <c r="FB4" s="11"/>
-      <c r="FC4" s="11"/>
-      <c r="FD4" s="11"/>
-      <c r="FE4" s="11"/>
-      <c r="FF4" s="11"/>
-      <c r="FG4" s="11"/>
-      <c r="FH4" s="11"/>
-      <c r="FI4" s="11"/>
-      <c r="FJ4" s="11"/>
-      <c r="FK4" s="11"/>
-      <c r="FL4" s="11"/>
-      <c r="FM4" s="11"/>
-      <c r="FN4" s="11"/>
-      <c r="FO4" s="11"/>
-      <c r="FP4" s="11"/>
-      <c r="FQ4" s="11"/>
-      <c r="FR4" s="11"/>
-      <c r="FS4" s="11"/>
-      <c r="FT4" s="11"/>
-      <c r="FU4" s="11"/>
-      <c r="FV4" s="11"/>
-      <c r="FW4" s="11"/>
-      <c r="FX4" s="11"/>
-      <c r="FY4" s="11"/>
-      <c r="FZ4" s="11"/>
-      <c r="GA4" s="11"/>
-      <c r="GB4" s="11"/>
-      <c r="GC4" s="11"/>
-      <c r="GD4" s="11"/>
-      <c r="GE4" s="11"/>
-      <c r="GF4" s="11"/>
-      <c r="GG4" s="11"/>
-      <c r="GH4" s="11"/>
-      <c r="GI4" s="11"/>
-      <c r="GJ4" s="11"/>
-      <c r="GK4" s="11"/>
-      <c r="GL4" s="11"/>
-      <c r="GM4" s="11"/>
-      <c r="GN4" s="11"/>
-      <c r="GO4" s="11"/>
-      <c r="GP4" s="11"/>
-      <c r="GQ4" s="11"/>
-      <c r="GR4" s="11"/>
-      <c r="GS4" s="11"/>
-      <c r="GT4" s="11"/>
-      <c r="GU4" s="11"/>
-      <c r="GV4" s="11"/>
-      <c r="GW4" s="11"/>
-      <c r="GX4" s="11"/>
-      <c r="GY4" s="11"/>
-      <c r="GZ4" s="11"/>
-      <c r="HA4" s="11"/>
-      <c r="HB4" s="11"/>
-      <c r="HC4" s="8"/>
-      <c r="HD4" s="7"/>
-      <c r="HE4" s="7"/>
-      <c r="HF4" s="22"/>
-      <c r="HG4" s="15"/>
-      <c r="HH4" s="15"/>
-      <c r="HI4" s="15"/>
-      <c r="HJ4" s="15"/>
-      <c r="HK4" s="15"/>
-      <c r="HL4" s="18"/>
-      <c r="HM4" s="23"/>
-      <c r="HN4" s="23"/>
-      <c r="HO4" s="23"/>
-      <c r="HP4" s="23"/>
-      <c r="HQ4" s="23"/>
-      <c r="HR4" s="23"/>
-      <c r="HS4" s="23"/>
-      <c r="HT4" s="23"/>
-      <c r="HU4" s="23"/>
-      <c r="HV4" s="23"/>
-      <c r="HW4" s="23"/>
-      <c r="HX4" s="23"/>
-      <c r="HY4" s="23"/>
-      <c r="HZ4" s="23"/>
-      <c r="IA4" s="23"/>
-      <c r="IB4" s="23"/>
-      <c r="IC4" s="23"/>
-      <c r="ID4" s="23"/>
-      <c r="IE4" s="23"/>
-      <c r="IF4" s="23"/>
-      <c r="IG4" s="23"/>
-      <c r="IH4" s="23"/>
-      <c r="II4" s="23"/>
-      <c r="IJ4" s="23"/>
-      <c r="IK4" s="23"/>
-      <c r="IL4" s="23"/>
-      <c r="IM4" s="23"/>
-      <c r="IN4" s="23"/>
-      <c r="IO4" s="23"/>
-      <c r="IP4" s="23"/>
-      <c r="IQ4" s="23"/>
-      <c r="IR4" s="23"/>
-      <c r="IS4" s="23"/>
-      <c r="IT4" s="23"/>
-      <c r="IU4" s="23"/>
-      <c r="IV4" s="23"/>
+      <c r="DY4" s="27"/>
+      <c r="DZ4" s="27"/>
+      <c r="EA4" s="27"/>
+      <c r="EB4" s="27"/>
+      <c r="EC4" s="27"/>
+      <c r="ED4" s="27"/>
+      <c r="EE4" s="27"/>
+      <c r="EF4" s="27"/>
+      <c r="EG4" s="27"/>
+      <c r="EH4" s="27"/>
+      <c r="EI4" s="27"/>
+      <c r="EJ4" s="27"/>
+      <c r="EK4" s="27"/>
+      <c r="EL4" s="27"/>
+      <c r="EM4" s="27"/>
+      <c r="EN4" s="27"/>
+      <c r="EO4" s="27"/>
+      <c r="EP4" s="27"/>
+      <c r="EQ4" s="27"/>
+      <c r="ER4" s="27"/>
+      <c r="ES4" s="27"/>
+      <c r="ET4" s="27"/>
+      <c r="EU4" s="27"/>
+      <c r="EV4" s="27"/>
+      <c r="EW4" s="27"/>
+      <c r="EX4" s="27"/>
+      <c r="EY4" s="27"/>
+      <c r="EZ4" s="27"/>
+      <c r="FA4" s="27"/>
+      <c r="FB4" s="27"/>
+      <c r="FC4" s="27"/>
+      <c r="FD4" s="27"/>
+      <c r="FE4" s="27"/>
+      <c r="FF4" s="27"/>
+      <c r="FG4" s="27"/>
+      <c r="FH4" s="27"/>
+      <c r="FI4" s="27"/>
+      <c r="FJ4" s="27"/>
+      <c r="FK4" s="27"/>
+      <c r="FL4" s="27"/>
+      <c r="FM4" s="27"/>
+      <c r="FN4" s="27"/>
+      <c r="FO4" s="27"/>
+      <c r="FP4" s="27"/>
+      <c r="FQ4" s="27"/>
+      <c r="FR4" s="27"/>
+      <c r="FS4" s="27"/>
+      <c r="FT4" s="27"/>
+      <c r="FU4" s="27"/>
+      <c r="FV4" s="27"/>
+      <c r="FW4" s="27"/>
+      <c r="FX4" s="27"/>
+      <c r="FY4" s="27"/>
+      <c r="FZ4" s="27"/>
+      <c r="GA4" s="27"/>
+      <c r="GB4" s="27"/>
+      <c r="GC4" s="27"/>
+      <c r="GD4" s="27"/>
+      <c r="GE4" s="27"/>
+      <c r="GF4" s="27"/>
+      <c r="GG4" s="27"/>
+      <c r="GH4" s="27"/>
+      <c r="GI4" s="27"/>
+      <c r="GJ4" s="27"/>
+      <c r="GK4" s="27"/>
+      <c r="GL4" s="27"/>
+      <c r="GM4" s="27"/>
+      <c r="GN4" s="27"/>
+      <c r="GO4" s="27"/>
+      <c r="GP4" s="27"/>
+      <c r="GQ4" s="27"/>
+      <c r="GR4" s="27"/>
+      <c r="GS4" s="27"/>
+      <c r="GT4" s="27"/>
+      <c r="GU4" s="27"/>
+      <c r="GV4" s="27"/>
+      <c r="GW4" s="27"/>
+      <c r="GX4" s="27"/>
+      <c r="GY4" s="27"/>
+      <c r="GZ4" s="27"/>
+      <c r="HA4" s="27"/>
+      <c r="HB4" s="27"/>
+      <c r="HC4" s="32"/>
+      <c r="HD4" s="34"/>
+      <c r="HE4" s="34"/>
+      <c r="HF4" s="8"/>
+      <c r="HG4" s="1"/>
+      <c r="HH4" s="1"/>
+      <c r="HI4" s="1"/>
+      <c r="HJ4" s="1"/>
+      <c r="HK4" s="1"/>
+      <c r="HL4" s="4"/>
+      <c r="HM4" s="9"/>
+      <c r="HN4" s="9"/>
+      <c r="HO4" s="9"/>
+      <c r="HP4" s="9"/>
+      <c r="HQ4" s="9"/>
+      <c r="HR4" s="9"/>
+      <c r="HS4" s="9"/>
+      <c r="HT4" s="9"/>
+      <c r="HU4" s="9"/>
+      <c r="HV4" s="9"/>
+      <c r="HW4" s="9"/>
+      <c r="HX4" s="9"/>
+      <c r="HY4" s="9"/>
+      <c r="HZ4" s="9"/>
+      <c r="IA4" s="9"/>
+      <c r="IB4" s="9"/>
+      <c r="IC4" s="9"/>
+      <c r="ID4" s="9"/>
+      <c r="IE4" s="9"/>
+      <c r="IF4" s="9"/>
+      <c r="IG4" s="9"/>
+      <c r="IH4" s="9"/>
+      <c r="II4" s="9"/>
+      <c r="IJ4" s="9"/>
+      <c r="IK4" s="9"/>
+      <c r="IL4" s="9"/>
+      <c r="IM4" s="9"/>
+      <c r="IN4" s="9"/>
+      <c r="IO4" s="9"/>
+      <c r="IP4" s="9"/>
+      <c r="IQ4" s="9"/>
+      <c r="IR4" s="9"/>
+      <c r="IS4" s="9"/>
+      <c r="IT4" s="9"/>
+      <c r="IU4" s="9"/>
+      <c r="IV4" s="9"/>
     </row>
-    <row r="5" spans="1:256" s="27" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="2" t="s">
+    <row r="5" spans="1:256" s="13" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="2" t="s">
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="2"/>
-      <c r="W5" s="1" t="s">
+      <c r="V5" s="30"/>
+      <c r="W5" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1" t="s">
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1" t="s">
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1" t="s">
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1" t="s">
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1" t="s">
+      <c r="AF5" s="29"/>
+      <c r="AG5" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="2" t="s">
+      <c r="AH5" s="29"/>
+      <c r="AI5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="1" t="s">
+      <c r="AJ5" s="30"/>
+      <c r="AK5" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="1" t="s">
+      <c r="AL5" s="29"/>
+      <c r="AM5" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="AN5" s="1"/>
-      <c r="AO5" s="1" t="s">
+      <c r="AN5" s="29"/>
+      <c r="AO5" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="AP5" s="1"/>
-      <c r="AQ5" s="1" t="s">
+      <c r="AP5" s="29"/>
+      <c r="AQ5" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="AR5" s="1"/>
-      <c r="AS5" s="1" t="s">
+      <c r="AR5" s="29"/>
+      <c r="AS5" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AT5" s="1"/>
-      <c r="AU5" s="1" t="s">
+      <c r="AT5" s="29"/>
+      <c r="AU5" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="AV5" s="1"/>
-      <c r="AW5" s="5"/>
-      <c r="AX5" s="5"/>
-      <c r="AY5" s="2" t="s">
+      <c r="AV5" s="29"/>
+      <c r="AW5" s="36"/>
+      <c r="AX5" s="36"/>
+      <c r="AY5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="AZ5" s="2"/>
-      <c r="BA5" s="1" t="s">
+      <c r="AZ5" s="30"/>
+      <c r="BA5" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="BB5" s="1"/>
-      <c r="BC5" s="1" t="s">
+      <c r="BB5" s="29"/>
+      <c r="BC5" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="BD5" s="1"/>
-      <c r="BE5" s="1" t="s">
+      <c r="BD5" s="29"/>
+      <c r="BE5" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="BF5" s="1"/>
-      <c r="BG5" s="1" t="s">
+      <c r="BF5" s="29"/>
+      <c r="BG5" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="BH5" s="1"/>
-      <c r="BI5" s="1" t="s">
+      <c r="BH5" s="29"/>
+      <c r="BI5" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="BJ5" s="1"/>
-      <c r="BK5" s="1" t="s">
+      <c r="BJ5" s="29"/>
+      <c r="BK5" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="BL5" s="1"/>
-      <c r="BM5" s="2" t="s">
+      <c r="BL5" s="29"/>
+      <c r="BM5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="BN5" s="2"/>
-      <c r="BO5" s="1" t="s">
+      <c r="BN5" s="30"/>
+      <c r="BO5" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="BP5" s="1"/>
-      <c r="BQ5" s="1" t="s">
+      <c r="BP5" s="29"/>
+      <c r="BQ5" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="BR5" s="1"/>
-      <c r="BS5" s="1" t="s">
+      <c r="BR5" s="29"/>
+      <c r="BS5" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="BT5" s="1"/>
-      <c r="BU5" s="1" t="s">
+      <c r="BT5" s="29"/>
+      <c r="BU5" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="BV5" s="1"/>
-      <c r="BW5" s="1" t="s">
+      <c r="BV5" s="29"/>
+      <c r="BW5" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="BX5" s="1"/>
-      <c r="BY5" s="1" t="s">
+      <c r="BX5" s="29"/>
+      <c r="BY5" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="BZ5" s="1"/>
-      <c r="CA5" s="6"/>
-      <c r="CB5" s="2" t="s">
+      <c r="BZ5" s="29"/>
+      <c r="CA5" s="35"/>
+      <c r="CB5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="CC5" s="2" t="s">
+      <c r="CC5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="CD5" s="2" t="s">
+      <c r="CD5" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="CE5" s="1" t="s">
+      <c r="CE5" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="CF5" s="1" t="s">
+      <c r="CF5" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="CG5" s="1" t="s">
+      <c r="CG5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="CH5" s="1" t="s">
+      <c r="CH5" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="CI5" s="2" t="s">
+      <c r="CI5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="CJ5" s="1" t="s">
+      <c r="CJ5" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="CK5" s="1" t="s">
+      <c r="CK5" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="CL5" s="1" t="s">
+      <c r="CL5" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="CM5" s="1" t="s">
+      <c r="CM5" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="CN5" s="1" t="s">
+      <c r="CN5" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="CO5" s="1" t="s">
+      <c r="CO5" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="CP5" s="37" t="s">
+      <c r="CP5" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="CQ5" s="38" t="s">
+      <c r="CQ5" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="CR5" s="38"/>
-      <c r="CS5" s="39" t="s">
+      <c r="CR5" s="44"/>
+      <c r="CS5" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="CT5" s="40" t="s">
+      <c r="CT5" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="CU5" s="40"/>
-      <c r="CV5" s="2" t="s">
+      <c r="CU5" s="41"/>
+      <c r="CV5" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="CW5" s="2"/>
-      <c r="CX5" s="2" t="s">
+      <c r="CW5" s="30"/>
+      <c r="CX5" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="CY5" s="2"/>
-      <c r="CZ5" s="40" t="s">
+      <c r="CY5" s="30"/>
+      <c r="CZ5" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="DA5" s="40"/>
-      <c r="DB5" s="40"/>
-      <c r="DC5" s="40" t="s">
+      <c r="DA5" s="41"/>
+      <c r="DB5" s="41"/>
+      <c r="DC5" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="DD5" s="40"/>
-      <c r="DE5" s="40"/>
-      <c r="DF5" s="6"/>
-      <c r="DG5" s="2" t="s">
+      <c r="DD5" s="41"/>
+      <c r="DE5" s="41"/>
+      <c r="DF5" s="35"/>
+      <c r="DG5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="DH5" s="2" t="s">
+      <c r="DH5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="DI5" s="2" t="s">
+      <c r="DI5" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="DJ5" s="1" t="s">
+      <c r="DJ5" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="DK5" s="1" t="s">
+      <c r="DK5" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="DL5" s="1" t="s">
+      <c r="DL5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="DM5" s="1" t="s">
+      <c r="DM5" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="DN5" s="2" t="s">
+      <c r="DN5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="DO5" s="1" t="s">
+      <c r="DO5" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="DP5" s="1" t="s">
+      <c r="DP5" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="DQ5" s="1" t="s">
+      <c r="DQ5" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="DR5" s="1" t="s">
+      <c r="DR5" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="DS5" s="1" t="s">
+      <c r="DS5" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="DT5" s="1" t="s">
+      <c r="DT5" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="DU5" s="41" t="s">
+      <c r="DU5" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="DV5" s="41" t="s">
+      <c r="DV5" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="DW5" s="41" t="s">
+      <c r="DW5" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="DX5" s="41" t="s">
+      <c r="DX5" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="DY5" s="41" t="s">
+      <c r="DY5" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="DZ5" s="41" t="s">
+      <c r="DZ5" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="EA5" s="40" t="s">
+      <c r="EA5" s="41" t="s">
         <v>99</v>
       </c>
       <c r="EB5" s="42" t="s">
@@ -2554,342 +2553,342 @@
       <c r="GS5" s="42"/>
       <c r="GT5" s="42"/>
       <c r="GU5" s="42"/>
-      <c r="GV5" s="43" t="s">
+      <c r="GV5" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="GW5" s="44" t="s">
+      <c r="GW5" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="GX5" s="44"/>
-      <c r="GY5" s="43" t="s">
+      <c r="GX5" s="45"/>
+      <c r="GY5" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="GZ5" s="45" t="s">
+      <c r="GZ5" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="HA5" s="44" t="s">
+      <c r="HA5" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="HB5" s="44"/>
-      <c r="HC5" s="8"/>
-      <c r="HD5" s="7"/>
-      <c r="HE5" s="7"/>
-      <c r="HF5" s="22"/>
-      <c r="HG5" s="15"/>
-      <c r="HH5" s="15"/>
-      <c r="HI5" s="15"/>
-      <c r="HJ5" s="15"/>
-      <c r="HK5" s="15"/>
-      <c r="HL5" s="18"/>
-      <c r="HM5" s="28"/>
-      <c r="HN5" s="28"/>
-      <c r="HO5" s="28"/>
-      <c r="HP5" s="28"/>
-      <c r="HQ5" s="28"/>
-      <c r="HR5" s="28"/>
-      <c r="HS5" s="28"/>
-      <c r="HT5" s="28"/>
-      <c r="HU5" s="28"/>
-      <c r="HV5" s="28"/>
-      <c r="HW5" s="28"/>
-      <c r="HX5" s="28"/>
-      <c r="HY5" s="28"/>
-      <c r="HZ5" s="28"/>
-      <c r="IA5" s="28"/>
-      <c r="IB5" s="28"/>
-      <c r="IC5" s="28"/>
-      <c r="ID5" s="28"/>
-      <c r="IE5" s="28"/>
-      <c r="IF5" s="28"/>
-      <c r="IG5" s="28"/>
-      <c r="IH5" s="28"/>
-      <c r="II5" s="28"/>
-      <c r="IJ5" s="28"/>
-      <c r="IK5" s="28"/>
-      <c r="IL5" s="28"/>
-      <c r="IM5" s="28"/>
-      <c r="IN5" s="28"/>
-      <c r="IO5" s="28"/>
-      <c r="IP5" s="28"/>
-      <c r="IQ5" s="28"/>
-      <c r="IR5" s="28"/>
-      <c r="IS5" s="28"/>
-      <c r="IT5" s="28"/>
-      <c r="IU5" s="28"/>
-      <c r="IV5" s="28"/>
+      <c r="HB5" s="45"/>
+      <c r="HC5" s="32"/>
+      <c r="HD5" s="34"/>
+      <c r="HE5" s="34"/>
+      <c r="HF5" s="8"/>
+      <c r="HG5" s="1"/>
+      <c r="HH5" s="1"/>
+      <c r="HI5" s="1"/>
+      <c r="HJ5" s="1"/>
+      <c r="HK5" s="1"/>
+      <c r="HL5" s="4"/>
+      <c r="HM5" s="14"/>
+      <c r="HN5" s="14"/>
+      <c r="HO5" s="14"/>
+      <c r="HP5" s="14"/>
+      <c r="HQ5" s="14"/>
+      <c r="HR5" s="14"/>
+      <c r="HS5" s="14"/>
+      <c r="HT5" s="14"/>
+      <c r="HU5" s="14"/>
+      <c r="HV5" s="14"/>
+      <c r="HW5" s="14"/>
+      <c r="HX5" s="14"/>
+      <c r="HY5" s="14"/>
+      <c r="HZ5" s="14"/>
+      <c r="IA5" s="14"/>
+      <c r="IB5" s="14"/>
+      <c r="IC5" s="14"/>
+      <c r="ID5" s="14"/>
+      <c r="IE5" s="14"/>
+      <c r="IF5" s="14"/>
+      <c r="IG5" s="14"/>
+      <c r="IH5" s="14"/>
+      <c r="II5" s="14"/>
+      <c r="IJ5" s="14"/>
+      <c r="IK5" s="14"/>
+      <c r="IL5" s="14"/>
+      <c r="IM5" s="14"/>
+      <c r="IN5" s="14"/>
+      <c r="IO5" s="14"/>
+      <c r="IP5" s="14"/>
+      <c r="IQ5" s="14"/>
+      <c r="IR5" s="14"/>
+      <c r="IS5" s="14"/>
+      <c r="IT5" s="14"/>
+      <c r="IU5" s="14"/>
+      <c r="IV5" s="14"/>
     </row>
-    <row r="6" spans="1:256" s="27" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="46" t="s">
+    <row r="6" spans="1:256" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="T6" s="46" t="s">
+      <c r="T6" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="U6" s="46" t="s">
+      <c r="U6" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="V6" s="46" t="s">
+      <c r="V6" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="W6" s="46" t="s">
+      <c r="W6" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="X6" s="46" t="s">
+      <c r="X6" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="Y6" s="46" t="s">
+      <c r="Y6" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="Z6" s="46" t="s">
+      <c r="Z6" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="AA6" s="46" t="s">
+      <c r="AA6" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="AB6" s="46" t="s">
+      <c r="AB6" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="AC6" s="46" t="s">
+      <c r="AC6" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="AD6" s="46" t="s">
+      <c r="AD6" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="AE6" s="46" t="s">
+      <c r="AE6" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="AF6" s="46" t="s">
+      <c r="AF6" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="AG6" s="46" t="s">
+      <c r="AG6" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="AH6" s="46" t="s">
+      <c r="AH6" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="AI6" s="46" t="s">
+      <c r="AI6" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="AJ6" s="46" t="s">
+      <c r="AJ6" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="AK6" s="46" t="s">
+      <c r="AK6" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="AL6" s="46" t="s">
+      <c r="AL6" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="AM6" s="46" t="s">
+      <c r="AM6" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="AN6" s="46" t="s">
+      <c r="AN6" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="AO6" s="46" t="s">
+      <c r="AO6" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="AP6" s="46" t="s">
+      <c r="AP6" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="AQ6" s="46" t="s">
+      <c r="AQ6" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="AR6" s="46" t="s">
+      <c r="AR6" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="AS6" s="46" t="s">
+      <c r="AS6" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="AT6" s="46" t="s">
+      <c r="AT6" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="AU6" s="46" t="s">
+      <c r="AU6" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="AV6" s="46" t="s">
+      <c r="AV6" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="AW6" s="46" t="s">
+      <c r="AW6" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="AX6" s="46" t="s">
+      <c r="AX6" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="AY6" s="46" t="s">
+      <c r="AY6" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="AZ6" s="46" t="s">
+      <c r="AZ6" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="BA6" s="46" t="s">
+      <c r="BA6" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="BB6" s="46" t="s">
+      <c r="BB6" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="BC6" s="46" t="s">
+      <c r="BC6" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="BD6" s="46" t="s">
+      <c r="BD6" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="BE6" s="46" t="s">
+      <c r="BE6" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="BF6" s="46" t="s">
+      <c r="BF6" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="BG6" s="46" t="s">
+      <c r="BG6" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="BH6" s="46" t="s">
+      <c r="BH6" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="BI6" s="46" t="s">
+      <c r="BI6" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="BJ6" s="46" t="s">
+      <c r="BJ6" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="BK6" s="46" t="s">
+      <c r="BK6" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="BL6" s="46" t="s">
+      <c r="BL6" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="BM6" s="46" t="s">
+      <c r="BM6" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="BN6" s="46" t="s">
+      <c r="BN6" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="BO6" s="46" t="s">
+      <c r="BO6" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="BP6" s="46" t="s">
+      <c r="BP6" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="BQ6" s="46" t="s">
+      <c r="BQ6" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="BR6" s="46" t="s">
+      <c r="BR6" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="BS6" s="46" t="s">
+      <c r="BS6" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="BT6" s="46" t="s">
+      <c r="BT6" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="BU6" s="46" t="s">
+      <c r="BU6" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="BV6" s="46" t="s">
+      <c r="BV6" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="BW6" s="46" t="s">
+      <c r="BW6" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="BX6" s="46" t="s">
+      <c r="BX6" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="BY6" s="46" t="s">
+      <c r="BY6" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="BZ6" s="46" t="s">
+      <c r="BZ6" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="CA6" s="6"/>
-      <c r="CB6" s="2"/>
-      <c r="CC6" s="2"/>
-      <c r="CD6" s="2"/>
-      <c r="CE6" s="1"/>
-      <c r="CF6" s="1"/>
-      <c r="CG6" s="1"/>
-      <c r="CH6" s="1"/>
-      <c r="CI6" s="2"/>
-      <c r="CJ6" s="1"/>
-      <c r="CK6" s="1"/>
-      <c r="CL6" s="1"/>
-      <c r="CM6" s="1"/>
-      <c r="CN6" s="1"/>
-      <c r="CO6" s="1"/>
-      <c r="CP6" s="37"/>
-      <c r="CQ6" s="37" t="s">
+      <c r="CA6" s="35"/>
+      <c r="CB6" s="30"/>
+      <c r="CC6" s="30"/>
+      <c r="CD6" s="30"/>
+      <c r="CE6" s="29"/>
+      <c r="CF6" s="29"/>
+      <c r="CG6" s="29"/>
+      <c r="CH6" s="29"/>
+      <c r="CI6" s="30"/>
+      <c r="CJ6" s="29"/>
+      <c r="CK6" s="29"/>
+      <c r="CL6" s="29"/>
+      <c r="CM6" s="29"/>
+      <c r="CN6" s="29"/>
+      <c r="CO6" s="29"/>
+      <c r="CP6" s="43"/>
+      <c r="CQ6" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="CR6" s="37" t="s">
+      <c r="CR6" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="CS6" s="39"/>
-      <c r="CT6" s="39" t="s">
+      <c r="CS6" s="40"/>
+      <c r="CT6" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="CU6" s="39" t="s">
+      <c r="CU6" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="CV6" s="2"/>
-      <c r="CW6" s="2"/>
-      <c r="CX6" s="2"/>
-      <c r="CY6" s="2"/>
-      <c r="CZ6" s="39" t="s">
+      <c r="CV6" s="30"/>
+      <c r="CW6" s="30"/>
+      <c r="CX6" s="30"/>
+      <c r="CY6" s="30"/>
+      <c r="CZ6" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="DA6" s="39" t="s">
+      <c r="DA6" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="DB6" s="39" t="s">
+      <c r="DB6" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="DC6" s="39" t="s">
+      <c r="DC6" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="DD6" s="39" t="s">
+      <c r="DD6" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="DE6" s="39" t="s">
+      <c r="DE6" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="DF6" s="6"/>
-      <c r="DG6" s="2"/>
-      <c r="DH6" s="2"/>
-      <c r="DI6" s="2"/>
-      <c r="DJ6" s="1"/>
-      <c r="DK6" s="1"/>
-      <c r="DL6" s="1"/>
-      <c r="DM6" s="1"/>
-      <c r="DN6" s="2"/>
-      <c r="DO6" s="1"/>
-      <c r="DP6" s="1"/>
-      <c r="DQ6" s="1"/>
-      <c r="DR6" s="1"/>
-      <c r="DS6" s="1"/>
-      <c r="DT6" s="1"/>
-      <c r="DU6" s="41"/>
-      <c r="DV6" s="41"/>
-      <c r="DW6" s="41"/>
-      <c r="DX6" s="41"/>
-      <c r="DY6" s="41"/>
-      <c r="DZ6" s="41"/>
-      <c r="EA6" s="40"/>
+      <c r="DF6" s="35"/>
+      <c r="DG6" s="30"/>
+      <c r="DH6" s="30"/>
+      <c r="DI6" s="30"/>
+      <c r="DJ6" s="29"/>
+      <c r="DK6" s="29"/>
+      <c r="DL6" s="29"/>
+      <c r="DM6" s="29"/>
+      <c r="DN6" s="30"/>
+      <c r="DO6" s="29"/>
+      <c r="DP6" s="29"/>
+      <c r="DQ6" s="29"/>
+      <c r="DR6" s="29"/>
+      <c r="DS6" s="29"/>
+      <c r="DT6" s="29"/>
+      <c r="DU6" s="33"/>
+      <c r="DV6" s="33"/>
+      <c r="DW6" s="33"/>
+      <c r="DX6" s="33"/>
+      <c r="DY6" s="33"/>
+      <c r="DZ6" s="33"/>
+      <c r="EA6" s="41"/>
       <c r="EB6" s="42"/>
       <c r="EC6" s="42"/>
       <c r="ED6" s="42"/>
@@ -2962,484 +2961,485 @@
       <c r="GS6" s="42"/>
       <c r="GT6" s="42"/>
       <c r="GU6" s="42"/>
-      <c r="GV6" s="43"/>
-      <c r="GW6" s="47" t="s">
+      <c r="GV6" s="47"/>
+      <c r="GW6" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="GX6" s="47" t="s">
+      <c r="GX6" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="GY6" s="43"/>
-      <c r="GZ6" s="45"/>
-      <c r="HA6" s="48" t="s">
+      <c r="GY6" s="47"/>
+      <c r="GZ6" s="48"/>
+      <c r="HA6" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="HB6" s="48" t="s">
+      <c r="HB6" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="HC6" s="8"/>
-      <c r="HD6" s="7"/>
-      <c r="HE6" s="7"/>
-      <c r="HF6" s="22"/>
-      <c r="HG6" s="15"/>
-      <c r="HH6" s="15"/>
-      <c r="HI6" s="15"/>
-      <c r="HJ6" s="15"/>
-      <c r="HK6" s="15"/>
-      <c r="HL6" s="18"/>
-      <c r="HM6" s="28"/>
-      <c r="HN6" s="28"/>
-      <c r="HO6" s="28"/>
-      <c r="HP6" s="28"/>
-      <c r="HQ6" s="28"/>
-      <c r="HR6" s="28"/>
-      <c r="HS6" s="28"/>
-      <c r="HT6" s="28"/>
-      <c r="HU6" s="28"/>
-      <c r="HV6" s="28"/>
-      <c r="HW6" s="28"/>
-      <c r="HX6" s="28"/>
-      <c r="HY6" s="28"/>
-      <c r="HZ6" s="28"/>
-      <c r="IA6" s="28"/>
-      <c r="IB6" s="28"/>
-      <c r="IC6" s="28"/>
-      <c r="ID6" s="28"/>
-      <c r="IE6" s="28"/>
-      <c r="IF6" s="28"/>
-      <c r="IG6" s="28"/>
-      <c r="IH6" s="28"/>
-      <c r="II6" s="28"/>
-      <c r="IJ6" s="28"/>
-      <c r="IK6" s="28"/>
-      <c r="IL6" s="28"/>
-      <c r="IM6" s="28"/>
-      <c r="IN6" s="28"/>
-      <c r="IO6" s="28"/>
-      <c r="IP6" s="28"/>
-      <c r="IQ6" s="28"/>
-      <c r="IR6" s="28"/>
-      <c r="IS6" s="28"/>
-      <c r="IT6" s="28"/>
-      <c r="IU6" s="28"/>
-      <c r="IV6" s="28"/>
+      <c r="HC6" s="32"/>
+      <c r="HD6" s="34"/>
+      <c r="HE6" s="34"/>
+      <c r="HF6" s="8"/>
+      <c r="HG6" s="1"/>
+      <c r="HH6" s="1"/>
+      <c r="HI6" s="1"/>
+      <c r="HJ6" s="1"/>
+      <c r="HK6" s="1"/>
+      <c r="HL6" s="4"/>
+      <c r="HM6" s="14"/>
+      <c r="HN6" s="14"/>
+      <c r="HO6" s="14"/>
+      <c r="HP6" s="14"/>
+      <c r="HQ6" s="14"/>
+      <c r="HR6" s="14"/>
+      <c r="HS6" s="14"/>
+      <c r="HT6" s="14"/>
+      <c r="HU6" s="14"/>
+      <c r="HV6" s="14"/>
+      <c r="HW6" s="14"/>
+      <c r="HX6" s="14"/>
+      <c r="HY6" s="14"/>
+      <c r="HZ6" s="14"/>
+      <c r="IA6" s="14"/>
+      <c r="IB6" s="14"/>
+      <c r="IC6" s="14"/>
+      <c r="ID6" s="14"/>
+      <c r="IE6" s="14"/>
+      <c r="IF6" s="14"/>
+      <c r="IG6" s="14"/>
+      <c r="IH6" s="14"/>
+      <c r="II6" s="14"/>
+      <c r="IJ6" s="14"/>
+      <c r="IK6" s="14"/>
+      <c r="IL6" s="14"/>
+      <c r="IM6" s="14"/>
+      <c r="IN6" s="14"/>
+      <c r="IO6" s="14"/>
+      <c r="IP6" s="14"/>
+      <c r="IQ6" s="14"/>
+      <c r="IR6" s="14"/>
+      <c r="IS6" s="14"/>
+      <c r="IT6" s="14"/>
+      <c r="IU6" s="14"/>
+      <c r="IV6" s="14"/>
     </row>
-    <row r="7" spans="1:256" s="29" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="46"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="46"/>
-      <c r="X7" s="46"/>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="46"/>
-      <c r="AA7" s="46"/>
-      <c r="AB7" s="46"/>
-      <c r="AC7" s="46"/>
-      <c r="AD7" s="46"/>
-      <c r="AE7" s="46"/>
-      <c r="AF7" s="46"/>
-      <c r="AG7" s="46"/>
-      <c r="AH7" s="46"/>
-      <c r="AI7" s="46"/>
-      <c r="AJ7" s="46"/>
-      <c r="AK7" s="46"/>
-      <c r="AL7" s="46"/>
-      <c r="AM7" s="46"/>
-      <c r="AN7" s="46"/>
-      <c r="AO7" s="46"/>
-      <c r="AP7" s="46"/>
-      <c r="AQ7" s="46"/>
-      <c r="AR7" s="46"/>
-      <c r="AS7" s="46"/>
-      <c r="AT7" s="46"/>
-      <c r="AU7" s="46"/>
-      <c r="AV7" s="46"/>
-      <c r="AW7" s="46"/>
-      <c r="AX7" s="46"/>
-      <c r="AY7" s="46"/>
-      <c r="AZ7" s="46"/>
-      <c r="BA7" s="46"/>
-      <c r="BB7" s="46"/>
-      <c r="BC7" s="46"/>
-      <c r="BD7" s="46"/>
-      <c r="BE7" s="46"/>
-      <c r="BF7" s="46"/>
-      <c r="BG7" s="46"/>
-      <c r="BH7" s="46"/>
-      <c r="BI7" s="46"/>
-      <c r="BJ7" s="46"/>
-      <c r="BK7" s="46"/>
-      <c r="BL7" s="46"/>
-      <c r="BM7" s="46"/>
-      <c r="BN7" s="46"/>
-      <c r="BO7" s="46"/>
-      <c r="BP7" s="46"/>
-      <c r="BQ7" s="46"/>
-      <c r="BR7" s="46"/>
-      <c r="BS7" s="46"/>
-      <c r="BT7" s="46"/>
-      <c r="BU7" s="46"/>
-      <c r="BV7" s="46"/>
-      <c r="BW7" s="46"/>
-      <c r="BX7" s="46"/>
-      <c r="BY7" s="46"/>
-      <c r="BZ7" s="46"/>
-      <c r="CA7" s="6"/>
-      <c r="CB7" s="2"/>
-      <c r="CC7" s="2"/>
-      <c r="CD7" s="2"/>
-      <c r="CE7" s="1"/>
-      <c r="CF7" s="1"/>
-      <c r="CG7" s="1"/>
-      <c r="CH7" s="1"/>
-      <c r="CI7" s="2"/>
-      <c r="CJ7" s="1"/>
-      <c r="CK7" s="1"/>
-      <c r="CL7" s="1"/>
-      <c r="CM7" s="1"/>
-      <c r="CN7" s="1"/>
-      <c r="CO7" s="1"/>
-      <c r="CP7" s="37"/>
-      <c r="CQ7" s="37"/>
-      <c r="CR7" s="37"/>
-      <c r="CS7" s="39"/>
-      <c r="CT7" s="39"/>
-      <c r="CU7" s="39"/>
-      <c r="CV7" s="26" t="s">
+    <row r="7" spans="1:256" s="15" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="39"/>
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="39"/>
+      <c r="AG7" s="39"/>
+      <c r="AH7" s="39"/>
+      <c r="AI7" s="39"/>
+      <c r="AJ7" s="39"/>
+      <c r="AK7" s="39"/>
+      <c r="AL7" s="39"/>
+      <c r="AM7" s="39"/>
+      <c r="AN7" s="39"/>
+      <c r="AO7" s="39"/>
+      <c r="AP7" s="39"/>
+      <c r="AQ7" s="39"/>
+      <c r="AR7" s="39"/>
+      <c r="AS7" s="39"/>
+      <c r="AT7" s="39"/>
+      <c r="AU7" s="39"/>
+      <c r="AV7" s="39"/>
+      <c r="AW7" s="39"/>
+      <c r="AX7" s="39"/>
+      <c r="AY7" s="39"/>
+      <c r="AZ7" s="39"/>
+      <c r="BA7" s="39"/>
+      <c r="BB7" s="39"/>
+      <c r="BC7" s="39"/>
+      <c r="BD7" s="39"/>
+      <c r="BE7" s="39"/>
+      <c r="BF7" s="39"/>
+      <c r="BG7" s="39"/>
+      <c r="BH7" s="39"/>
+      <c r="BI7" s="39"/>
+      <c r="BJ7" s="39"/>
+      <c r="BK7" s="39"/>
+      <c r="BL7" s="39"/>
+      <c r="BM7" s="39"/>
+      <c r="BN7" s="39"/>
+      <c r="BO7" s="39"/>
+      <c r="BP7" s="39"/>
+      <c r="BQ7" s="39"/>
+      <c r="BR7" s="39"/>
+      <c r="BS7" s="39"/>
+      <c r="BT7" s="39"/>
+      <c r="BU7" s="39"/>
+      <c r="BV7" s="39"/>
+      <c r="BW7" s="39"/>
+      <c r="BX7" s="39"/>
+      <c r="BY7" s="39"/>
+      <c r="BZ7" s="39"/>
+      <c r="CA7" s="35"/>
+      <c r="CB7" s="30"/>
+      <c r="CC7" s="30"/>
+      <c r="CD7" s="30"/>
+      <c r="CE7" s="29"/>
+      <c r="CF7" s="29"/>
+      <c r="CG7" s="29"/>
+      <c r="CH7" s="29"/>
+      <c r="CI7" s="30"/>
+      <c r="CJ7" s="29"/>
+      <c r="CK7" s="29"/>
+      <c r="CL7" s="29"/>
+      <c r="CM7" s="29"/>
+      <c r="CN7" s="29"/>
+      <c r="CO7" s="29"/>
+      <c r="CP7" s="43"/>
+      <c r="CQ7" s="43"/>
+      <c r="CR7" s="43"/>
+      <c r="CS7" s="40"/>
+      <c r="CT7" s="40"/>
+      <c r="CU7" s="40"/>
+      <c r="CV7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="CW7" s="30" t="s">
+      <c r="CW7" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="CX7" s="26" t="s">
+      <c r="CX7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="CY7" s="30" t="s">
+      <c r="CY7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="CZ7" s="39"/>
-      <c r="DA7" s="39"/>
-      <c r="DB7" s="39"/>
-      <c r="DC7" s="39"/>
-      <c r="DD7" s="39"/>
-      <c r="DE7" s="39"/>
-      <c r="DF7" s="6"/>
-      <c r="DG7" s="2"/>
-      <c r="DH7" s="2"/>
-      <c r="DI7" s="2"/>
-      <c r="DJ7" s="1"/>
-      <c r="DK7" s="1"/>
-      <c r="DL7" s="1"/>
-      <c r="DM7" s="1"/>
-      <c r="DN7" s="2"/>
-      <c r="DO7" s="1"/>
-      <c r="DP7" s="1"/>
-      <c r="DQ7" s="1"/>
-      <c r="DR7" s="1"/>
-      <c r="DS7" s="1"/>
-      <c r="DT7" s="1"/>
-      <c r="DU7" s="41"/>
-      <c r="DV7" s="41"/>
-      <c r="DW7" s="41"/>
-      <c r="DX7" s="41"/>
-      <c r="DY7" s="41"/>
-      <c r="DZ7" s="41"/>
-      <c r="EA7" s="40"/>
-      <c r="EB7" s="31" t="s">
+      <c r="CZ7" s="40"/>
+      <c r="DA7" s="40"/>
+      <c r="DB7" s="40"/>
+      <c r="DC7" s="40"/>
+      <c r="DD7" s="40"/>
+      <c r="DE7" s="40"/>
+      <c r="DF7" s="35"/>
+      <c r="DG7" s="30"/>
+      <c r="DH7" s="30"/>
+      <c r="DI7" s="30"/>
+      <c r="DJ7" s="29"/>
+      <c r="DK7" s="29"/>
+      <c r="DL7" s="29"/>
+      <c r="DM7" s="29"/>
+      <c r="DN7" s="30"/>
+      <c r="DO7" s="29"/>
+      <c r="DP7" s="29"/>
+      <c r="DQ7" s="29"/>
+      <c r="DR7" s="29"/>
+      <c r="DS7" s="29"/>
+      <c r="DT7" s="29"/>
+      <c r="DU7" s="33"/>
+      <c r="DV7" s="33"/>
+      <c r="DW7" s="33"/>
+      <c r="DX7" s="33"/>
+      <c r="DY7" s="33"/>
+      <c r="DZ7" s="33"/>
+      <c r="EA7" s="41"/>
+      <c r="EB7" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="EC7" s="32" t="s">
+      <c r="EC7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="ED7" s="25" t="s">
+      <c r="ED7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="EE7" s="32" t="s">
+      <c r="EE7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="EF7" s="32" t="s">
+      <c r="EF7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="EG7" s="32" t="s">
+      <c r="EG7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="EH7" s="32" t="s">
+      <c r="EH7" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="EI7" s="33" t="s">
+      <c r="EI7" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="EJ7" s="33" t="s">
+      <c r="EJ7" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="EK7" s="31" t="s">
+      <c r="EK7" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="EL7" s="32" t="s">
+      <c r="EL7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="EM7" s="25" t="s">
+      <c r="EM7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="EN7" s="32" t="s">
+      <c r="EN7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="EO7" s="32" t="s">
+      <c r="EO7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="EP7" s="32" t="s">
+      <c r="EP7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="EQ7" s="32" t="s">
+      <c r="EQ7" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="ER7" s="33" t="s">
+      <c r="ER7" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="ES7" s="33" t="s">
+      <c r="ES7" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="ET7" s="31" t="s">
+      <c r="ET7" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="EU7" s="32" t="s">
+      <c r="EU7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="EV7" s="25" t="s">
+      <c r="EV7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="EW7" s="32" t="s">
+      <c r="EW7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="EX7" s="32" t="s">
+      <c r="EX7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="EY7" s="32" t="s">
+      <c r="EY7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="EZ7" s="32" t="s">
+      <c r="EZ7" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="FA7" s="33" t="s">
+      <c r="FA7" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="FB7" s="33" t="s">
+      <c r="FB7" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="FC7" s="31" t="s">
+      <c r="FC7" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="FD7" s="32" t="s">
+      <c r="FD7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="FE7" s="25" t="s">
+      <c r="FE7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="FF7" s="32" t="s">
+      <c r="FF7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="FG7" s="32" t="s">
+      <c r="FG7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="FH7" s="32" t="s">
+      <c r="FH7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="FI7" s="32" t="s">
+      <c r="FI7" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="FJ7" s="33" t="s">
+      <c r="FJ7" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="FK7" s="33" t="s">
+      <c r="FK7" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="FL7" s="31" t="s">
+      <c r="FL7" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="FM7" s="32" t="s">
+      <c r="FM7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="FN7" s="25" t="s">
+      <c r="FN7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="FO7" s="32" t="s">
+      <c r="FO7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="FP7" s="32" t="s">
+      <c r="FP7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="FQ7" s="32" t="s">
+      <c r="FQ7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="FR7" s="32" t="s">
+      <c r="FR7" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="FS7" s="33" t="s">
+      <c r="FS7" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="FT7" s="33" t="s">
+      <c r="FT7" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="FU7" s="31" t="s">
+      <c r="FU7" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="FV7" s="32" t="s">
+      <c r="FV7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="FW7" s="25" t="s">
+      <c r="FW7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="FX7" s="32" t="s">
+      <c r="FX7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="FY7" s="32" t="s">
+      <c r="FY7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="FZ7" s="32" t="s">
+      <c r="FZ7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="GA7" s="32" t="s">
+      <c r="GA7" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="GB7" s="33" t="s">
+      <c r="GB7" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="GC7" s="33" t="s">
+      <c r="GC7" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="GD7" s="31" t="s">
+      <c r="GD7" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="GE7" s="32" t="s">
+      <c r="GE7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="GF7" s="25" t="s">
+      <c r="GF7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="GG7" s="32" t="s">
+      <c r="GG7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="GH7" s="32" t="s">
+      <c r="GH7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="GI7" s="32" t="s">
+      <c r="GI7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="GJ7" s="32" t="s">
+      <c r="GJ7" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="GK7" s="33" t="s">
+      <c r="GK7" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="GL7" s="33" t="s">
+      <c r="GL7" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="GM7" s="31" t="s">
+      <c r="GM7" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="GN7" s="32" t="s">
+      <c r="GN7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="GO7" s="25" t="s">
+      <c r="GO7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="GP7" s="32" t="s">
+      <c r="GP7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="GQ7" s="32" t="s">
+      <c r="GQ7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="GR7" s="32" t="s">
+      <c r="GR7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="GS7" s="32" t="s">
+      <c r="GS7" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="GT7" s="33" t="s">
+      <c r="GT7" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="GU7" s="33" t="s">
+      <c r="GU7" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="GV7" s="43"/>
-      <c r="GW7" s="47"/>
-      <c r="GX7" s="47"/>
-      <c r="GY7" s="43"/>
-      <c r="GZ7" s="45"/>
-      <c r="HA7" s="48"/>
-      <c r="HB7" s="48"/>
-      <c r="HC7" s="8"/>
-      <c r="HD7" s="34" t="s">
+      <c r="GV7" s="47"/>
+      <c r="GW7" s="49"/>
+      <c r="GX7" s="49"/>
+      <c r="GY7" s="47"/>
+      <c r="GZ7" s="48"/>
+      <c r="HA7" s="46"/>
+      <c r="HB7" s="46"/>
+      <c r="HC7" s="32"/>
+      <c r="HD7" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="HE7" s="24" t="s">
+      <c r="HE7" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="HF7" s="22"/>
-      <c r="HG7" s="15"/>
-      <c r="HH7" s="15"/>
-      <c r="HI7" s="15"/>
-      <c r="HJ7" s="15"/>
-      <c r="HK7" s="15"/>
-      <c r="HL7" s="18"/>
-      <c r="HM7" s="35"/>
-      <c r="HN7" s="35"/>
-      <c r="HO7" s="35"/>
-      <c r="HP7" s="35"/>
-      <c r="HQ7" s="35"/>
-      <c r="HR7" s="35"/>
-      <c r="HS7" s="35"/>
-      <c r="HT7" s="35"/>
-      <c r="HU7" s="35"/>
-      <c r="HV7" s="35"/>
-      <c r="HW7" s="35"/>
-      <c r="HX7" s="35"/>
-      <c r="HY7" s="35"/>
-      <c r="HZ7" s="35"/>
-      <c r="IA7" s="35"/>
-      <c r="IB7" s="35"/>
-      <c r="IC7" s="35"/>
-      <c r="ID7" s="35"/>
-      <c r="IE7" s="35"/>
-      <c r="IF7" s="35"/>
-      <c r="IG7" s="35"/>
-      <c r="IH7" s="35"/>
-      <c r="II7" s="35"/>
-      <c r="IJ7" s="35"/>
-      <c r="IK7" s="35"/>
-      <c r="IL7" s="35"/>
-      <c r="IM7" s="35"/>
-      <c r="IN7" s="35"/>
-      <c r="IO7" s="35"/>
-      <c r="IP7" s="35"/>
-      <c r="IQ7" s="35"/>
-      <c r="IR7" s="35"/>
-      <c r="IS7" s="35"/>
-      <c r="IT7" s="35"/>
-      <c r="IU7" s="35"/>
-      <c r="IV7" s="35"/>
+      <c r="HF7" s="8"/>
+      <c r="HG7" s="1"/>
+      <c r="HH7" s="1"/>
+      <c r="HI7" s="1"/>
+      <c r="HJ7" s="1"/>
+      <c r="HK7" s="1"/>
+      <c r="HL7" s="4"/>
+      <c r="HM7" s="21"/>
+      <c r="HN7" s="21"/>
+      <c r="HO7" s="21"/>
+      <c r="HP7" s="21"/>
+      <c r="HQ7" s="21"/>
+      <c r="HR7" s="21"/>
+      <c r="HS7" s="21"/>
+      <c r="HT7" s="21"/>
+      <c r="HU7" s="21"/>
+      <c r="HV7" s="21"/>
+      <c r="HW7" s="21"/>
+      <c r="HX7" s="21"/>
+      <c r="HY7" s="21"/>
+      <c r="HZ7" s="21"/>
+      <c r="IA7" s="21"/>
+      <c r="IB7" s="21"/>
+      <c r="IC7" s="21"/>
+      <c r="ID7" s="21"/>
+      <c r="IE7" s="21"/>
+      <c r="IF7" s="21"/>
+      <c r="IG7" s="21"/>
+      <c r="IH7" s="21"/>
+      <c r="II7" s="21"/>
+      <c r="IJ7" s="21"/>
+      <c r="IK7" s="21"/>
+      <c r="IL7" s="21"/>
+      <c r="IM7" s="21"/>
+      <c r="IN7" s="21"/>
+      <c r="IO7" s="21"/>
+      <c r="IP7" s="21"/>
+      <c r="IQ7" s="21"/>
+      <c r="IR7" s="21"/>
+      <c r="IS7" s="21"/>
+      <c r="IT7" s="21"/>
+      <c r="IU7" s="21"/>
+      <c r="IV7" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="210">
+  <mergeCells count="209">
+    <mergeCell ref="A1:P1"/>
     <mergeCell ref="HA6:HA7"/>
     <mergeCell ref="HB6:HB7"/>
     <mergeCell ref="BH6:BH7"/>
@@ -3451,6 +3451,19 @@
     <mergeCell ref="BN6:BN7"/>
     <mergeCell ref="BO6:BO7"/>
     <mergeCell ref="BP6:BP7"/>
+    <mergeCell ref="FC5:FK6"/>
+    <mergeCell ref="FL5:FT6"/>
+    <mergeCell ref="FU5:GC6"/>
+    <mergeCell ref="GD5:GL6"/>
+    <mergeCell ref="GM5:GU6"/>
+    <mergeCell ref="GV5:GV7"/>
+    <mergeCell ref="GW5:GX5"/>
+    <mergeCell ref="GY5:GY7"/>
+    <mergeCell ref="GZ5:GZ7"/>
+    <mergeCell ref="GW6:GW7"/>
+    <mergeCell ref="GX6:GX7"/>
+    <mergeCell ref="DV5:DV7"/>
+    <mergeCell ref="DW5:DW7"/>
     <mergeCell ref="AY6:AY7"/>
     <mergeCell ref="AZ6:AZ7"/>
     <mergeCell ref="BA6:BA7"/>
@@ -3493,19 +3506,6 @@
     <mergeCell ref="AM6:AM7"/>
     <mergeCell ref="AN6:AN7"/>
     <mergeCell ref="AO6:AO7"/>
-    <mergeCell ref="FC5:FK6"/>
-    <mergeCell ref="FL5:FT6"/>
-    <mergeCell ref="FU5:GC6"/>
-    <mergeCell ref="GD5:GL6"/>
-    <mergeCell ref="GM5:GU6"/>
-    <mergeCell ref="GV5:GV7"/>
-    <mergeCell ref="GW5:GX5"/>
-    <mergeCell ref="GY5:GY7"/>
-    <mergeCell ref="GZ5:GZ7"/>
-    <mergeCell ref="GW6:GW7"/>
-    <mergeCell ref="GX6:GX7"/>
-    <mergeCell ref="DV5:DV7"/>
-    <mergeCell ref="DW5:DW7"/>
     <mergeCell ref="DX5:DX7"/>
     <mergeCell ref="DY5:DY7"/>
     <mergeCell ref="DZ5:DZ7"/>
@@ -3541,8 +3541,6 @@
     <mergeCell ref="CL5:CL7"/>
     <mergeCell ref="CM5:CM7"/>
     <mergeCell ref="CN5:CN7"/>
-    <mergeCell ref="BQ5:BR5"/>
-    <mergeCell ref="BS5:BT5"/>
     <mergeCell ref="BU5:BV5"/>
     <mergeCell ref="BW5:BX5"/>
     <mergeCell ref="BY5:BZ5"/>
@@ -3560,8 +3558,6 @@
     <mergeCell ref="BX6:BX7"/>
     <mergeCell ref="BY6:BY7"/>
     <mergeCell ref="BZ6:BZ7"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="BA5:BB5"/>
     <mergeCell ref="BC5:BD5"/>
     <mergeCell ref="BE5:BF5"/>
     <mergeCell ref="BG5:BH5"/>
@@ -3569,8 +3565,8 @@
     <mergeCell ref="BK5:BL5"/>
     <mergeCell ref="BM5:BN5"/>
     <mergeCell ref="BO5:BP5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="BQ5:BR5"/>
+    <mergeCell ref="BS5:BT5"/>
     <mergeCell ref="AI5:AJ5"/>
     <mergeCell ref="AK5:AL5"/>
     <mergeCell ref="AM5:AN5"/>
@@ -3578,6 +3574,8 @@
     <mergeCell ref="AQ5:AR5"/>
     <mergeCell ref="AS5:AT5"/>
     <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="BA5:BB5"/>
     <mergeCell ref="HD3:HE6"/>
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="E4:K4"/>
@@ -3626,8 +3624,6 @@
     <mergeCell ref="DS5:DS7"/>
     <mergeCell ref="DT5:DT7"/>
     <mergeCell ref="DU5:DU7"/>
-    <mergeCell ref="B1:CG1"/>
-    <mergeCell ref="C2:P2"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="C3:C7"/>
@@ -3650,6 +3646,8 @@
     <mergeCell ref="Y5:Z5"/>
     <mergeCell ref="AA5:AB5"/>
     <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -3671,768 +3669,768 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IW8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" style="15" customWidth="1"/>
-    <col min="3" max="5" width="6" style="15" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="15" customWidth="1"/>
-    <col min="7" max="11" width="8.140625" style="15" customWidth="1"/>
-    <col min="12" max="13" width="7.28515625" style="15" customWidth="1"/>
-    <col min="14" max="15" width="7.85546875" style="15" customWidth="1"/>
-    <col min="16" max="17" width="7.42578125" style="15" customWidth="1"/>
-    <col min="18" max="27" width="5.85546875" style="15" customWidth="1"/>
-    <col min="28" max="29" width="7.42578125" style="15" customWidth="1"/>
-    <col min="30" max="39" width="5.85546875" style="15" customWidth="1"/>
-    <col min="40" max="41" width="7.42578125" style="15" customWidth="1"/>
-    <col min="42" max="51" width="5.85546875" style="15" customWidth="1"/>
-    <col min="52" max="53" width="7.42578125" style="15" customWidth="1"/>
-    <col min="54" max="63" width="5.85546875" style="15" customWidth="1"/>
-    <col min="64" max="65" width="8.85546875" style="15" customWidth="1"/>
-    <col min="66" max="67" width="10.85546875" style="15" customWidth="1"/>
-    <col min="68" max="68" width="86.7109375" style="15" customWidth="1"/>
-    <col min="69" max="257" width="9.140625" style="15" customWidth="1"/>
-    <col min="258" max="1025" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="6" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="1" customWidth="1"/>
+    <col min="7" max="11" width="8.109375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="7.33203125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="7.88671875" style="1" customWidth="1"/>
+    <col min="16" max="17" width="7.44140625" style="1" customWidth="1"/>
+    <col min="18" max="27" width="5.88671875" style="1" customWidth="1"/>
+    <col min="28" max="29" width="7.44140625" style="1" customWidth="1"/>
+    <col min="30" max="39" width="5.88671875" style="1" customWidth="1"/>
+    <col min="40" max="41" width="7.44140625" style="1" customWidth="1"/>
+    <col min="42" max="51" width="5.88671875" style="1" customWidth="1"/>
+    <col min="52" max="53" width="7.44140625" style="1" customWidth="1"/>
+    <col min="54" max="63" width="5.88671875" style="1" customWidth="1"/>
+    <col min="64" max="65" width="8.88671875" style="1" customWidth="1"/>
+    <col min="66" max="67" width="10.88671875" style="1" customWidth="1"/>
+    <col min="68" max="68" width="86.6640625" style="1" customWidth="1"/>
+    <col min="69" max="257" width="9.109375" style="1" customWidth="1"/>
+    <col min="258" max="1025" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="17"/>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
-      <c r="AU1" s="17"/>
-      <c r="AV1" s="17"/>
-      <c r="AW1" s="17"/>
-      <c r="AX1" s="17"/>
-      <c r="AY1" s="17"/>
-      <c r="AZ1" s="17"/>
-      <c r="BA1" s="17"/>
-      <c r="BB1" s="17"/>
-      <c r="BC1" s="17"/>
-      <c r="BD1" s="17"/>
-      <c r="BE1" s="17"/>
-      <c r="BF1" s="17"/>
-      <c r="BG1" s="17"/>
-      <c r="BH1" s="17"/>
-      <c r="BI1" s="17"/>
-      <c r="BJ1" s="17"/>
-      <c r="BK1" s="17"/>
-      <c r="BL1" s="17"/>
-      <c r="BM1" s="17"/>
-      <c r="BN1" s="17"/>
-      <c r="BO1" s="17"/>
+    <row r="1" spans="1:69" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3"/>
+      <c r="BG1" s="3"/>
+      <c r="BH1" s="3"/>
+      <c r="BI1" s="3"/>
+      <c r="BJ1" s="3"/>
+      <c r="BK1" s="3"/>
+      <c r="BL1" s="3"/>
+      <c r="BM1" s="3"/>
+      <c r="BN1" s="3"/>
+      <c r="BO1" s="3"/>
     </row>
-    <row r="2" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="20"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="17"/>
-      <c r="AO2" s="17"/>
-      <c r="AP2" s="17"/>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="17"/>
-      <c r="AS2" s="17"/>
-      <c r="AT2" s="17"/>
-      <c r="AU2" s="17"/>
-      <c r="AV2" s="17"/>
-      <c r="AW2" s="17"/>
-      <c r="AX2" s="17"/>
-      <c r="AY2" s="17"/>
-      <c r="AZ2" s="17"/>
-      <c r="BA2" s="17"/>
-      <c r="BB2" s="17"/>
-      <c r="BC2" s="17"/>
-      <c r="BD2" s="17"/>
-      <c r="BE2" s="17"/>
-      <c r="BF2" s="17"/>
-      <c r="BG2" s="17"/>
-      <c r="BH2" s="17"/>
-      <c r="BI2" s="17"/>
-      <c r="BJ2" s="17"/>
-      <c r="BK2" s="17"/>
-      <c r="BL2" s="17"/>
-      <c r="BM2" s="17"/>
-      <c r="BN2" s="17"/>
-      <c r="BO2" s="17"/>
+    <row r="2" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="3"/>
+      <c r="BI2" s="3"/>
+      <c r="BJ2" s="3"/>
+      <c r="BK2" s="3"/>
+      <c r="BL2" s="3"/>
+      <c r="BM2" s="3"/>
+      <c r="BN2" s="3"/>
+      <c r="BO2" s="3"/>
     </row>
-    <row r="3" spans="1:69" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:69" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="11"/>
-      <c r="AI3" s="11"/>
-      <c r="AJ3" s="11"/>
-      <c r="AK3" s="11"/>
-      <c r="AL3" s="11"/>
-      <c r="AM3" s="11"/>
-      <c r="AN3" s="11"/>
-      <c r="AO3" s="11"/>
-      <c r="AP3" s="11"/>
-      <c r="AQ3" s="11"/>
-      <c r="AR3" s="11"/>
-      <c r="AS3" s="11"/>
-      <c r="AT3" s="11"/>
-      <c r="AU3" s="11"/>
-      <c r="AV3" s="11"/>
-      <c r="AW3" s="11"/>
-      <c r="AX3" s="11"/>
-      <c r="AY3" s="11"/>
-      <c r="AZ3" s="11"/>
-      <c r="BA3" s="11"/>
-      <c r="BB3" s="11"/>
-      <c r="BC3" s="11"/>
-      <c r="BD3" s="11"/>
-      <c r="BE3" s="11"/>
-      <c r="BF3" s="11"/>
-      <c r="BG3" s="11"/>
-      <c r="BH3" s="11"/>
-      <c r="BI3" s="11"/>
-      <c r="BJ3" s="11"/>
-      <c r="BK3" s="11"/>
-      <c r="BL3" s="3" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="27"/>
+      <c r="AN3" s="27"/>
+      <c r="AO3" s="27"/>
+      <c r="AP3" s="27"/>
+      <c r="AQ3" s="27"/>
+      <c r="AR3" s="27"/>
+      <c r="AS3" s="27"/>
+      <c r="AT3" s="27"/>
+      <c r="AU3" s="27"/>
+      <c r="AV3" s="27"/>
+      <c r="AW3" s="27"/>
+      <c r="AX3" s="27"/>
+      <c r="AY3" s="27"/>
+      <c r="AZ3" s="27"/>
+      <c r="BA3" s="27"/>
+      <c r="BB3" s="27"/>
+      <c r="BC3" s="27"/>
+      <c r="BD3" s="27"/>
+      <c r="BE3" s="27"/>
+      <c r="BF3" s="27"/>
+      <c r="BG3" s="27"/>
+      <c r="BH3" s="27"/>
+      <c r="BI3" s="27"/>
+      <c r="BJ3" s="27"/>
+      <c r="BK3" s="27"/>
+      <c r="BL3" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="BM3" s="3"/>
-      <c r="BN3" s="5" t="s">
+      <c r="BM3" s="38"/>
+      <c r="BN3" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="BO3" s="5"/>
-      <c r="BP3" s="8" t="s">
+      <c r="BO3" s="36"/>
+      <c r="BP3" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="BQ3" s="22"/>
+      <c r="BQ3" s="8"/>
     </row>
-    <row r="4" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="11"/>
-      <c r="AI4" s="11"/>
-      <c r="AJ4" s="11"/>
-      <c r="AK4" s="11"/>
-      <c r="AL4" s="11"/>
-      <c r="AM4" s="11"/>
-      <c r="AN4" s="11"/>
-      <c r="AO4" s="11"/>
-      <c r="AP4" s="11"/>
-      <c r="AQ4" s="11"/>
-      <c r="AR4" s="11"/>
-      <c r="AS4" s="11"/>
-      <c r="AT4" s="11"/>
-      <c r="AU4" s="11"/>
-      <c r="AV4" s="11"/>
-      <c r="AW4" s="11"/>
-      <c r="AX4" s="11"/>
-      <c r="AY4" s="11"/>
-      <c r="AZ4" s="11"/>
-      <c r="BA4" s="11"/>
-      <c r="BB4" s="11"/>
-      <c r="BC4" s="11"/>
-      <c r="BD4" s="11"/>
-      <c r="BE4" s="11"/>
-      <c r="BF4" s="11"/>
-      <c r="BG4" s="11"/>
-      <c r="BH4" s="11"/>
-      <c r="BI4" s="11"/>
-      <c r="BJ4" s="11"/>
-      <c r="BK4" s="11"/>
-      <c r="BL4" s="3"/>
-      <c r="BM4" s="3"/>
-      <c r="BN4" s="5"/>
-      <c r="BO4" s="5"/>
-      <c r="BP4" s="8"/>
-      <c r="BQ4" s="22"/>
+    <row r="4" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="27"/>
+      <c r="AH4" s="27"/>
+      <c r="AI4" s="27"/>
+      <c r="AJ4" s="27"/>
+      <c r="AK4" s="27"/>
+      <c r="AL4" s="27"/>
+      <c r="AM4" s="27"/>
+      <c r="AN4" s="27"/>
+      <c r="AO4" s="27"/>
+      <c r="AP4" s="27"/>
+      <c r="AQ4" s="27"/>
+      <c r="AR4" s="27"/>
+      <c r="AS4" s="27"/>
+      <c r="AT4" s="27"/>
+      <c r="AU4" s="27"/>
+      <c r="AV4" s="27"/>
+      <c r="AW4" s="27"/>
+      <c r="AX4" s="27"/>
+      <c r="AY4" s="27"/>
+      <c r="AZ4" s="27"/>
+      <c r="BA4" s="27"/>
+      <c r="BB4" s="27"/>
+      <c r="BC4" s="27"/>
+      <c r="BD4" s="27"/>
+      <c r="BE4" s="27"/>
+      <c r="BF4" s="27"/>
+      <c r="BG4" s="27"/>
+      <c r="BH4" s="27"/>
+      <c r="BI4" s="27"/>
+      <c r="BJ4" s="27"/>
+      <c r="BK4" s="27"/>
+      <c r="BL4" s="38"/>
+      <c r="BM4" s="38"/>
+      <c r="BN4" s="36"/>
+      <c r="BO4" s="36"/>
+      <c r="BP4" s="32"/>
+      <c r="BQ4" s="8"/>
     </row>
-    <row r="5" spans="1:69" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="50" t="s">
+    <row r="5" spans="1:69" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="5" t="s">
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5" t="s">
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="51" t="s">
+      <c r="M5" s="36"/>
+      <c r="N5" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="O5" s="51"/>
-      <c r="P5" s="52" t="s">
+      <c r="O5" s="53"/>
+      <c r="P5" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="52"/>
-      <c r="AC5" s="52"/>
-      <c r="AD5" s="52"/>
-      <c r="AE5" s="52"/>
-      <c r="AF5" s="52"/>
-      <c r="AG5" s="52"/>
-      <c r="AH5" s="52"/>
-      <c r="AI5" s="52"/>
-      <c r="AJ5" s="52"/>
-      <c r="AK5" s="52"/>
-      <c r="AL5" s="52"/>
-      <c r="AM5" s="52"/>
-      <c r="AN5" s="52"/>
-      <c r="AO5" s="52"/>
-      <c r="AP5" s="52"/>
-      <c r="AQ5" s="52"/>
-      <c r="AR5" s="52"/>
-      <c r="AS5" s="52"/>
-      <c r="AT5" s="52"/>
-      <c r="AU5" s="52"/>
-      <c r="AV5" s="52"/>
-      <c r="AW5" s="52"/>
-      <c r="AX5" s="52"/>
-      <c r="AY5" s="52"/>
-      <c r="AZ5" s="52"/>
-      <c r="BA5" s="52"/>
-      <c r="BB5" s="52"/>
-      <c r="BC5" s="52"/>
-      <c r="BD5" s="52"/>
-      <c r="BE5" s="52"/>
-      <c r="BF5" s="52"/>
-      <c r="BG5" s="52"/>
-      <c r="BH5" s="52"/>
-      <c r="BI5" s="52"/>
-      <c r="BJ5" s="52"/>
-      <c r="BK5" s="52"/>
-      <c r="BL5" s="53" t="s">
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="54"/>
+      <c r="AC5" s="54"/>
+      <c r="AD5" s="54"/>
+      <c r="AE5" s="54"/>
+      <c r="AF5" s="54"/>
+      <c r="AG5" s="54"/>
+      <c r="AH5" s="54"/>
+      <c r="AI5" s="54"/>
+      <c r="AJ5" s="54"/>
+      <c r="AK5" s="54"/>
+      <c r="AL5" s="54"/>
+      <c r="AM5" s="54"/>
+      <c r="AN5" s="54"/>
+      <c r="AO5" s="54"/>
+      <c r="AP5" s="54"/>
+      <c r="AQ5" s="54"/>
+      <c r="AR5" s="54"/>
+      <c r="AS5" s="54"/>
+      <c r="AT5" s="54"/>
+      <c r="AU5" s="54"/>
+      <c r="AV5" s="54"/>
+      <c r="AW5" s="54"/>
+      <c r="AX5" s="54"/>
+      <c r="AY5" s="54"/>
+      <c r="AZ5" s="54"/>
+      <c r="BA5" s="54"/>
+      <c r="BB5" s="54"/>
+      <c r="BC5" s="54"/>
+      <c r="BD5" s="54"/>
+      <c r="BE5" s="54"/>
+      <c r="BF5" s="54"/>
+      <c r="BG5" s="54"/>
+      <c r="BH5" s="54"/>
+      <c r="BI5" s="54"/>
+      <c r="BJ5" s="54"/>
+      <c r="BK5" s="54"/>
+      <c r="BL5" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="BM5" s="36" t="s">
+      <c r="BM5" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="BN5" s="5"/>
-      <c r="BO5" s="5"/>
-      <c r="BP5" s="8"/>
-      <c r="BQ5" s="22"/>
+      <c r="BN5" s="36"/>
+      <c r="BO5" s="36"/>
+      <c r="BP5" s="32"/>
+      <c r="BQ5" s="8"/>
     </row>
-    <row r="6" spans="1:69" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="54" t="s">
+    <row r="6" spans="1:69" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="52"/>
-      <c r="AC6" s="52"/>
-      <c r="AD6" s="52"/>
-      <c r="AE6" s="52"/>
-      <c r="AF6" s="52"/>
-      <c r="AG6" s="52"/>
-      <c r="AH6" s="52"/>
-      <c r="AI6" s="52"/>
-      <c r="AJ6" s="52"/>
-      <c r="AK6" s="52"/>
-      <c r="AL6" s="52"/>
-      <c r="AM6" s="52"/>
-      <c r="AN6" s="52"/>
-      <c r="AO6" s="52"/>
-      <c r="AP6" s="52"/>
-      <c r="AQ6" s="52"/>
-      <c r="AR6" s="52"/>
-      <c r="AS6" s="52"/>
-      <c r="AT6" s="52"/>
-      <c r="AU6" s="52"/>
-      <c r="AV6" s="52"/>
-      <c r="AW6" s="52"/>
-      <c r="AX6" s="52"/>
-      <c r="AY6" s="52"/>
-      <c r="AZ6" s="52"/>
-      <c r="BA6" s="52"/>
-      <c r="BB6" s="52"/>
-      <c r="BC6" s="52"/>
-      <c r="BD6" s="52"/>
-      <c r="BE6" s="52"/>
-      <c r="BF6" s="52"/>
-      <c r="BG6" s="52"/>
-      <c r="BH6" s="52"/>
-      <c r="BI6" s="52"/>
-      <c r="BJ6" s="52"/>
-      <c r="BK6" s="52"/>
-      <c r="BL6" s="53"/>
-      <c r="BM6" s="53" t="s">
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="54"/>
+      <c r="Y6" s="54"/>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="54"/>
+      <c r="AC6" s="54"/>
+      <c r="AD6" s="54"/>
+      <c r="AE6" s="54"/>
+      <c r="AF6" s="54"/>
+      <c r="AG6" s="54"/>
+      <c r="AH6" s="54"/>
+      <c r="AI6" s="54"/>
+      <c r="AJ6" s="54"/>
+      <c r="AK6" s="54"/>
+      <c r="AL6" s="54"/>
+      <c r="AM6" s="54"/>
+      <c r="AN6" s="54"/>
+      <c r="AO6" s="54"/>
+      <c r="AP6" s="54"/>
+      <c r="AQ6" s="54"/>
+      <c r="AR6" s="54"/>
+      <c r="AS6" s="54"/>
+      <c r="AT6" s="54"/>
+      <c r="AU6" s="54"/>
+      <c r="AV6" s="54"/>
+      <c r="AW6" s="54"/>
+      <c r="AX6" s="54"/>
+      <c r="AY6" s="54"/>
+      <c r="AZ6" s="54"/>
+      <c r="BA6" s="54"/>
+      <c r="BB6" s="54"/>
+      <c r="BC6" s="54"/>
+      <c r="BD6" s="54"/>
+      <c r="BE6" s="54"/>
+      <c r="BF6" s="54"/>
+      <c r="BG6" s="54"/>
+      <c r="BH6" s="54"/>
+      <c r="BI6" s="54"/>
+      <c r="BJ6" s="54"/>
+      <c r="BK6" s="54"/>
+      <c r="BL6" s="51"/>
+      <c r="BM6" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="BN6" s="56" t="s">
+      <c r="BN6" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="BO6" s="56" t="s">
+      <c r="BO6" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="BP6" s="8"/>
-      <c r="BQ6" s="22"/>
+      <c r="BP6" s="32"/>
+      <c r="BQ6" s="8"/>
     </row>
-    <row r="7" spans="1:69" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5" t="s">
+    <row r="7" spans="1:69" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="P7" s="53" t="s">
+      <c r="P7" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53" t="s">
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="53" t="s">
+      <c r="W7" s="51"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="51"/>
+      <c r="AB7" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="AC7" s="53"/>
-      <c r="AD7" s="53"/>
-      <c r="AE7" s="53"/>
-      <c r="AF7" s="53"/>
-      <c r="AG7" s="53"/>
-      <c r="AH7" s="53" t="s">
+      <c r="AC7" s="51"/>
+      <c r="AD7" s="51"/>
+      <c r="AE7" s="51"/>
+      <c r="AF7" s="51"/>
+      <c r="AG7" s="51"/>
+      <c r="AH7" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="AI7" s="53"/>
-      <c r="AJ7" s="53"/>
-      <c r="AK7" s="53"/>
-      <c r="AL7" s="53"/>
-      <c r="AM7" s="53"/>
-      <c r="AN7" s="53" t="s">
+      <c r="AI7" s="51"/>
+      <c r="AJ7" s="51"/>
+      <c r="AK7" s="51"/>
+      <c r="AL7" s="51"/>
+      <c r="AM7" s="51"/>
+      <c r="AN7" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="AO7" s="53"/>
-      <c r="AP7" s="53"/>
-      <c r="AQ7" s="53"/>
-      <c r="AR7" s="53"/>
-      <c r="AS7" s="53"/>
-      <c r="AT7" s="53" t="s">
+      <c r="AO7" s="51"/>
+      <c r="AP7" s="51"/>
+      <c r="AQ7" s="51"/>
+      <c r="AR7" s="51"/>
+      <c r="AS7" s="51"/>
+      <c r="AT7" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="AU7" s="53"/>
-      <c r="AV7" s="53"/>
-      <c r="AW7" s="53"/>
-      <c r="AX7" s="53"/>
-      <c r="AY7" s="53"/>
-      <c r="AZ7" s="53" t="s">
+      <c r="AU7" s="51"/>
+      <c r="AV7" s="51"/>
+      <c r="AW7" s="51"/>
+      <c r="AX7" s="51"/>
+      <c r="AY7" s="51"/>
+      <c r="AZ7" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="BA7" s="53"/>
-      <c r="BB7" s="53"/>
-      <c r="BC7" s="53"/>
-      <c r="BD7" s="53"/>
-      <c r="BE7" s="53"/>
-      <c r="BF7" s="57" t="s">
+      <c r="BA7" s="51"/>
+      <c r="BB7" s="51"/>
+      <c r="BC7" s="51"/>
+      <c r="BD7" s="51"/>
+      <c r="BE7" s="51"/>
+      <c r="BF7" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="BG7" s="57"/>
-      <c r="BH7" s="57"/>
-      <c r="BI7" s="57"/>
-      <c r="BJ7" s="57"/>
-      <c r="BK7" s="57"/>
-      <c r="BL7" s="53"/>
-      <c r="BM7" s="53"/>
-      <c r="BN7" s="56"/>
-      <c r="BO7" s="56"/>
-      <c r="BP7" s="8"/>
-      <c r="BQ7" s="22"/>
+      <c r="BG7" s="58"/>
+      <c r="BH7" s="58"/>
+      <c r="BI7" s="58"/>
+      <c r="BJ7" s="58"/>
+      <c r="BK7" s="58"/>
+      <c r="BL7" s="51"/>
+      <c r="BM7" s="51"/>
+      <c r="BN7" s="57"/>
+      <c r="BO7" s="57"/>
+      <c r="BP7" s="32"/>
+      <c r="BQ7" s="8"/>
     </row>
-    <row r="8" spans="1:69" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="24" t="s">
+    <row r="8" spans="1:69" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="Q8" s="24" t="s">
+      <c r="Q8" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="R8" s="36" t="s">
+      <c r="R8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="S8" s="36" t="s">
+      <c r="S8" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="T8" s="36" t="s">
+      <c r="T8" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="U8" s="36" t="s">
+      <c r="U8" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="V8" s="24" t="s">
+      <c r="V8" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="W8" s="24" t="s">
+      <c r="W8" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="X8" s="36" t="s">
+      <c r="X8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="Y8" s="36" t="s">
+      <c r="Y8" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="Z8" s="36" t="s">
+      <c r="Z8" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AA8" s="36" t="s">
+      <c r="AA8" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="AB8" s="24" t="s">
+      <c r="AB8" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="AC8" s="24" t="s">
+      <c r="AC8" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="AD8" s="36" t="s">
+      <c r="AD8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="AE8" s="36" t="s">
+      <c r="AE8" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="AF8" s="36" t="s">
+      <c r="AF8" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AG8" s="36" t="s">
+      <c r="AG8" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="AH8" s="24" t="s">
+      <c r="AH8" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="AI8" s="24" t="s">
+      <c r="AI8" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="AJ8" s="36" t="s">
+      <c r="AJ8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="AK8" s="36" t="s">
+      <c r="AK8" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="AL8" s="36" t="s">
+      <c r="AL8" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AM8" s="36" t="s">
+      <c r="AM8" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="AN8" s="24" t="s">
+      <c r="AN8" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="AO8" s="24" t="s">
+      <c r="AO8" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="AP8" s="36" t="s">
+      <c r="AP8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="AQ8" s="36" t="s">
+      <c r="AQ8" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="AR8" s="36" t="s">
+      <c r="AR8" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AS8" s="36" t="s">
+      <c r="AS8" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="AT8" s="24" t="s">
+      <c r="AT8" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="AU8" s="24" t="s">
+      <c r="AU8" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="AV8" s="36" t="s">
+      <c r="AV8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="AW8" s="36" t="s">
+      <c r="AW8" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="AX8" s="36" t="s">
+      <c r="AX8" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AY8" s="36" t="s">
+      <c r="AY8" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="AZ8" s="24" t="s">
+      <c r="AZ8" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="BA8" s="24" t="s">
+      <c r="BA8" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="BB8" s="36" t="s">
+      <c r="BB8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="BC8" s="36" t="s">
+      <c r="BC8" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="BD8" s="36" t="s">
+      <c r="BD8" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="BE8" s="36" t="s">
+      <c r="BE8" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="BF8" s="24" t="s">
+      <c r="BF8" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="BG8" s="24" t="s">
+      <c r="BG8" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="BH8" s="36" t="s">
+      <c r="BH8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="BI8" s="36" t="s">
+      <c r="BI8" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="BJ8" s="36" t="s">
+      <c r="BJ8" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="BK8" s="36" t="s">
+      <c r="BK8" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="BL8" s="53"/>
-      <c r="BM8" s="53"/>
-      <c r="BN8" s="56"/>
-      <c r="BO8" s="56"/>
-      <c r="BP8" s="8"/>
-      <c r="BQ8" s="22"/>
+      <c r="BL8" s="51"/>
+      <c r="BM8" s="51"/>
+      <c r="BN8" s="57"/>
+      <c r="BO8" s="57"/>
+      <c r="BP8" s="32"/>
+      <c r="BQ8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="37">
